--- a/work/V1.2_新增字段(1月6号更新).xlsx
+++ b/work/V1.2_新增字段(1月6号更新).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BF3D08-D9F6-4695-8394-8A1D793B9774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0608D670-CF54-4BBD-AC3D-6D45D3EAC898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="1020" windowWidth="26565" windowHeight="14685" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14595" yWindow="2550" windowWidth="16980" windowHeight="12990" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="bug" sheetId="4" r:id="rId4"/>
     <sheet name="无损检测" sheetId="5" r:id="rId5"/>
     <sheet name="特殊检测" sheetId="6" r:id="rId6"/>
+    <sheet name="动载检测" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -429,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="552">
   <si>
     <t>字段名</t>
   </si>
@@ -3942,6 +3943,78 @@
   </si>
   <si>
     <t>check_company</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊检测搜索过滤</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excle导出功能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增字段</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥梁名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理单位</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>制表人</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测结论</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge_name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_time</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inst_Name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>detInstitiution</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>det_name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>consequence</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测负责人</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>mange_company</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_principal_person</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_result</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3949,7 +4022,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4045,8 +4118,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Tai Le"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4113,6 +4192,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -4156,7 +4241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4178,6 +4263,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7986,7 +8073,7 @@
   <dimension ref="B1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8156,10 +8243,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E76285-F245-4C5D-AD0B-FE0851F9DCA2}">
-  <dimension ref="B3:D13"/>
+  <dimension ref="B3:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8207,7 +8294,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+      <c r="C9" s="19" t="s">
         <v>521</v>
       </c>
       <c r="D9" t="s">
@@ -8231,7 +8318,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+      <c r="C12" s="19" t="s">
         <v>522</v>
       </c>
       <c r="D12" t="s">
@@ -8239,11 +8326,300 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+      <c r="C13" s="19" t="s">
         <v>523</v>
       </c>
       <c r="D13" t="s">
         <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>534</v>
+      </c>
+      <c r="C16" t="s">
+        <v>528</v>
+      </c>
+      <c r="D16" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>521</v>
+      </c>
+      <c r="D17" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D18" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="D19" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="D20" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>523</v>
+      </c>
+      <c r="D21" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>535</v>
+      </c>
+      <c r="C26" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>537</v>
+      </c>
+      <c r="D28" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>538</v>
+      </c>
+      <c r="D29" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>539</v>
+      </c>
+      <c r="D30" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>530</v>
+      </c>
+      <c r="D31" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>521</v>
+      </c>
+      <c r="D32" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>522</v>
+      </c>
+      <c r="D33" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>523</v>
+      </c>
+      <c r="D34" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>540</v>
+      </c>
+      <c r="D35" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>541</v>
+      </c>
+      <c r="D36" t="s">
+        <v>547</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F487A52-C981-4291-A7F1-3F7002F198E5}">
+  <dimension ref="B3:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="41.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="D17" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="D18" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="D19" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="D20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="D21" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>535</v>
+      </c>
+      <c r="C26" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>537</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>538</v>
+      </c>
+      <c r="D28" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>539</v>
+      </c>
+      <c r="D29" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>530</v>
+      </c>
+      <c r="D30" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>548</v>
+      </c>
+      <c r="D31" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>541</v>
+      </c>
+      <c r="D32" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>

--- a/work/V1.2_新增字段(1月6号更新).xlsx
+++ b/work/V1.2_新增字段(1月6号更新).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0608D670-CF54-4BBD-AC3D-6D45D3EAC898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DDA045-FE93-40C8-B342-607D23B9EB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="2550" windowWidth="16980" windowHeight="12990" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="无损检测" sheetId="5" r:id="rId5"/>
     <sheet name="特殊检测" sheetId="6" r:id="rId6"/>
     <sheet name="动载检测" sheetId="7" r:id="rId7"/>
+    <sheet name="桥梁巡查" sheetId="8" r:id="rId8"/>
+    <sheet name="危桥管理" sheetId="9" r:id="rId9"/>
+    <sheet name="业务台账" sheetId="10" r:id="rId10"/>
+    <sheet name="桥梁列表_档案" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -430,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="593">
   <si>
     <t>字段名</t>
   </si>
@@ -4015,6 +4019,301 @@
   </si>
   <si>
     <t>check_result</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project_name</t>
+  </si>
+  <si>
+    <t>无增加字段</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询优化</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常巡查轨迹，需要提供接口</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>危桥等级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>认定单位</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>认定时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>认定方式</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>dangerousBridgeLv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>institutionName</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>identificationTime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>identificationMethodName</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>dangerouStatusName</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridgeName</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>管养单位</t>
+  </si>
+  <si>
+    <t>桥梁结构</t>
+  </si>
+  <si>
+    <t>建造时间</t>
+  </si>
+  <si>
+    <t>maintain_company</t>
+  </si>
+  <si>
+    <t>maintain_company</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge_structure</t>
+  </si>
+  <si>
+    <t>bridge_structure</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>buid_time</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个地方需要和用户确定</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excle导出</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表字段增加</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理方式</t>
+  </si>
+  <si>
+    <t>填报人</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>filler</t>
+  </si>
+  <si>
+    <t>管养单位</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bs/api/bridgeService/Maintain/MlistInfo</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v1.2需求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF137CDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>增加  ”其他资料“子类型 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>；该类型与其他类型一致，同时具有上传下载，编辑，删除 ，功能 ；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF137CDD"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加查询功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：可按照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上传时间段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行查询，查询功能范围覆盖全部类型的资料类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜素</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传时间段</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadtime_start</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadtime_end</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -4022,7 +4321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4124,8 +4423,58 @@
       <name val="Microsoft Tai Le"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2D2D2D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1890FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF137CDD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF137CDD"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4198,6 +4547,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -4241,7 +4602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4265,6 +4626,19 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7972,6 +8346,123 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD3380B-412D-4142-8571-BD521C7E77FE}">
+  <dimension ref="B4:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="46.625" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>583</v>
+      </c>
+      <c r="D9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>581</v>
+      </c>
+      <c r="D10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="26"/>
+      <c r="C11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFCD286-CDF1-470B-968C-DE37035E9583}">
+  <dimension ref="B6:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="28" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="29" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D9" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>589</v>
+      </c>
+      <c r="D10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C27:F34"/>
@@ -8246,7 +8737,7 @@
   <dimension ref="B3:D36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8476,46 +8967,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F487A52-C981-4291-A7F1-3F7002F198E5}">
-  <dimension ref="B3:D32"/>
+  <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="41.75" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>520</v>
       </c>
       <c r="C3" t="s">
-        <v>521</v>
-      </c>
-      <c r="D3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>523</v>
-      </c>
-      <c r="D5" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
       <c r="B16" s="20" t="s">
         <v>519</v>
       </c>
@@ -8526,7 +9002,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C17" s="19" t="s">
         <v>508</v>
       </c>
@@ -8534,39 +9010,43 @@
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="19" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="21" t="s">
         <v>510</v>
       </c>
       <c r="D18" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="21" t="s">
         <v>512</v>
       </c>
       <c r="D19" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="19" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="21" t="s">
         <v>514</v>
       </c>
       <c r="D20" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="19" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="21" t="s">
         <v>515</v>
       </c>
       <c r="D21" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
       <c r="B26" t="s">
         <v>535</v>
       </c>
@@ -8574,7 +9054,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>537</v>
       </c>
@@ -8582,7 +9062,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>538</v>
       </c>
@@ -8590,7 +9070,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>539</v>
       </c>
@@ -8598,7 +9078,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>530</v>
       </c>
@@ -8606,7 +9086,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>548</v>
       </c>
@@ -8614,7 +9094,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>541</v>
       </c>
@@ -8625,5 +9105,205 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35FC653-1B7D-40BF-9B8B-AF761FCDD977}">
+  <dimension ref="A4:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="41.75" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>539</v>
+      </c>
+      <c r="D7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>548</v>
+      </c>
+      <c r="D9" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>541</v>
+      </c>
+      <c r="D10" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0B56D2-C96A-43DA-98DF-4E47C3CF98D4}">
+  <dimension ref="B3:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>561</v>
+      </c>
+      <c r="D9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>562</v>
+      </c>
+      <c r="D10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C14" t="s">
+        <v>569</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="D15" t="s">
+        <v>575</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>571</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>576</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E15:F15"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/work/V1.2_新增字段(1月6号更新).xlsx
+++ b/work/V1.2_新增字段(1月6号更新).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DDA045-FE93-40C8-B342-607D23B9EB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96DFB31-CC33-45B4-ADBE-942E89410E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7575" yWindow="4410" windowWidth="20640" windowHeight="12990" tabRatio="500" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="动载检测" sheetId="7" r:id="rId7"/>
     <sheet name="桥梁巡查" sheetId="8" r:id="rId8"/>
     <sheet name="危桥管理" sheetId="9" r:id="rId9"/>
-    <sheet name="业务台账" sheetId="10" r:id="rId10"/>
+    <sheet name="维修加固-业务台账" sheetId="10" r:id="rId10"/>
     <sheet name="桥梁列表_档案" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="598">
   <si>
     <t>字段名</t>
   </si>
@@ -4099,13 +4099,7 @@
   </si>
   <si>
     <t>maintain_company</t>
-  </si>
-  <si>
-    <t>maintain_company</t>
     <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>bridge_structure</t>
   </si>
   <si>
     <t>bridge_structure</t>
@@ -4135,9 +4129,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>filler</t>
-  </si>
-  <si>
     <t>管养单位</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -4315,6 +4306,32 @@
   <si>
     <t>uploadtime_end</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>_RepairReinforceEntity</t>
+  </si>
+  <si>
+    <t>ProvessMethod</t>
+  </si>
+  <si>
+    <t>provess_method</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfomationUser</t>
+  </si>
+  <si>
+    <t>Information_user</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge_component</t>
+  </si>
+  <si>
+    <t>managerUnitNames</t>
+  </si>
+  <si>
+    <t>ManagerUnitNames</t>
   </si>
 </sst>
 </file>
@@ -4628,9 +4645,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4638,6 +4652,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8348,10 +8365,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD3380B-412D-4142-8571-BD521C7E77FE}">
-  <dimension ref="B4:D11"/>
+  <dimension ref="B4:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8359,52 +8376,82 @@
     <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="46.625" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>578</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C8" t="s">
         <v>492</v>
       </c>
       <c r="D8" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+      <c r="E8" t="s">
+        <v>595</v>
+      </c>
+      <c r="F8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D9" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+      <c r="E9" t="s">
+        <v>597</v>
+      </c>
+      <c r="F9" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D10" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="26"/>
+        <v>594</v>
+      </c>
+      <c r="E10" t="s">
+        <v>593</v>
+      </c>
+      <c r="F10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="25"/>
       <c r="C11" t="s">
-        <v>580</v>
+        <v>578</v>
+      </c>
+      <c r="D11" t="s">
+        <v>592</v>
+      </c>
+      <c r="E11" t="s">
+        <v>591</v>
+      </c>
+      <c r="F11" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8412,8 +8459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFCD286-CDF1-470B-968C-DE37035E9583}">
   <dimension ref="B6:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8424,37 +8471,37 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="28" t="s">
-        <v>585</v>
+      <c r="B6" s="27" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="29" t="s">
-        <v>586</v>
+      <c r="B7" s="28" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C9" t="s">
+        <v>585</v>
+      </c>
+      <c r="D9" t="s">
         <v>587</v>
-      </c>
-      <c r="C9" t="s">
-        <v>588</v>
-      </c>
-      <c r="D9" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -9275,7 +9322,7 @@
         <v>569</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
@@ -9283,19 +9330,19 @@
         <v>570</v>
       </c>
       <c r="D15" t="s">
+        <v>573</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>571</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/work/V1.2_新增字段(1月6号更新).xlsx
+++ b/work/V1.2_新增字段(1月6号更新).xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42098D36-6264-41BC-9927-6BE7ACA2C183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1ACF42-6F48-4461-BE37-3A3FD0A8B364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="上部结构材料" sheetId="3" r:id="rId3"/>
-    <sheet name="bug" sheetId="4" r:id="rId4"/>
-    <sheet name="无损检测" sheetId="5" r:id="rId5"/>
-    <sheet name="特殊检测" sheetId="6" r:id="rId6"/>
-    <sheet name="动载检测" sheetId="7" r:id="rId7"/>
-    <sheet name="桥梁巡查" sheetId="8" r:id="rId8"/>
-    <sheet name="危桥管理" sheetId="9" r:id="rId9"/>
-    <sheet name="桥梁列表_档案" sheetId="11" r:id="rId10"/>
-    <sheet name="维修加固-业务台账" sheetId="10" r:id="rId11"/>
-    <sheet name="沟通记录" sheetId="12" r:id="rId12"/>
-    <sheet name="系统设置_组织管理" sheetId="13" r:id="rId13"/>
-    <sheet name="一桥一档_档案查询" sheetId="14" r:id="rId14"/>
+    <sheet name="无损检测" sheetId="5" r:id="rId4"/>
+    <sheet name="特殊检测" sheetId="6" r:id="rId5"/>
+    <sheet name="动载检测" sheetId="7" r:id="rId6"/>
+    <sheet name="桥梁巡查" sheetId="8" r:id="rId7"/>
+    <sheet name="危桥管理" sheetId="9" r:id="rId8"/>
+    <sheet name="桥梁列表_档案" sheetId="11" r:id="rId9"/>
+    <sheet name="维修加固-业务台账" sheetId="10" r:id="rId10"/>
+    <sheet name="沟通记录" sheetId="12" r:id="rId11"/>
+    <sheet name="系统设置_组织管理" sheetId="13" r:id="rId12"/>
+    <sheet name="一桥一档_档案查询" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -104,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="630">
   <si>
     <t>字段名</t>
   </si>
@@ -3278,15 +3277,6 @@
   </si>
   <si>
     <t>排水管类型</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>桥墩--&gt;支座--&gt;材料，接口返回了值，但是前端不显示</t>
-  </si>
-  <si>
-    <t>onebridgeandonegear-list?id=23&amp;brgNo=44190023</t>
   </si>
   <si>
     <t>detection_ndt</t>
@@ -4355,27 +4345,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4397,7 +4372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4409,8 +4384,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -4426,12 +4400,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5127,9 +5101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C264" sqref="C264"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C266" sqref="C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5144,17 +5118,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>610</v>
+      <c r="E1" s="23" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
@@ -5667,10 +5641,10 @@
         <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5769,7 +5743,7 @@
         <v>107</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>92</v>
@@ -5854,8 +5828,8 @@
       <c r="C67" t="s">
         <v>120</v>
       </c>
-      <c r="D67" s="26" t="s">
-        <v>614</v>
+      <c r="D67" s="24" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
@@ -5863,7 +5837,7 @@
         <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D68" t="s">
         <v>122</v>
@@ -5892,11 +5866,11 @@
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="25" t="s">
         <v>127</v>
       </c>
       <c r="C71" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D71" t="s">
         <v>122</v>
@@ -5961,11 +5935,11 @@
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="25" t="s">
         <v>138</v>
       </c>
       <c r="C77" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D77" t="s">
         <v>122</v>
@@ -6005,11 +5979,11 @@
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="25" t="s">
         <v>145</v>
       </c>
       <c r="C81" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D81" t="s">
         <v>122</v>
@@ -6052,11 +6026,11 @@
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="25" t="s">
         <v>152</v>
       </c>
       <c r="C85" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D85" t="s">
         <v>122</v>
@@ -6110,11 +6084,11 @@
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="25" t="s">
         <v>161</v>
       </c>
       <c r="C90" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D90" t="s">
         <v>122</v>
@@ -6197,15 +6171,15 @@
         <v>120</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="25" t="s">
         <v>174</v>
       </c>
       <c r="C99" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D99" t="s">
         <v>175</v>
@@ -6252,7 +6226,7 @@
         <v>181</v>
       </c>
       <c r="C103" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D103" t="s">
         <v>175</v>
@@ -6270,11 +6244,11 @@
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="27" t="s">
+      <c r="B105" s="25" t="s">
         <v>184</v>
       </c>
       <c r="C105" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D105" t="s">
         <v>175</v>
@@ -6336,11 +6310,11 @@
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="27" t="s">
+      <c r="B111" s="25" t="s">
         <v>195</v>
       </c>
       <c r="C111" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D111" t="s">
         <v>175</v>
@@ -6409,7 +6383,7 @@
         <v>206</v>
       </c>
       <c r="C117" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D117" t="s">
         <v>175</v>
@@ -6493,11 +6467,11 @@
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="27" t="s">
+      <c r="B125" s="25" t="s">
         <v>221</v>
       </c>
       <c r="C125" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D125" t="s">
         <v>175</v>
@@ -6551,11 +6525,11 @@
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="27" t="s">
+      <c r="B130" s="25" t="s">
         <v>230</v>
       </c>
       <c r="C130" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D130" t="s">
         <v>175</v>
@@ -6609,7 +6583,7 @@
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="27" t="s">
+      <c r="B136" s="25" t="s">
         <v>239</v>
       </c>
       <c r="C136" t="s">
@@ -6653,7 +6627,7 @@
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="27" t="s">
+      <c r="B140" s="25" t="s">
         <v>248</v>
       </c>
       <c r="C140" t="s">
@@ -6708,7 +6682,7 @@
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="27" t="s">
+      <c r="B145" s="25" t="s">
         <v>258</v>
       </c>
       <c r="C145" t="s">
@@ -6756,7 +6730,7 @@
         <v>266</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D149" t="s">
         <v>241</v>
@@ -6843,7 +6817,7 @@
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B158" s="27" t="s">
+      <c r="B158" s="25" t="s">
         <v>282</v>
       </c>
       <c r="C158" t="s">
@@ -6887,7 +6861,7 @@
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B162" s="27" t="s">
+      <c r="B162" s="25" t="s">
         <v>290</v>
       </c>
       <c r="C162" t="s">
@@ -6931,7 +6905,7 @@
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B166" s="27" t="s">
+      <c r="B166" s="25" t="s">
         <v>298</v>
       </c>
       <c r="C166" t="s">
@@ -6953,7 +6927,7 @@
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B168" s="27" t="s">
+      <c r="B168" s="25" t="s">
         <v>302</v>
       </c>
       <c r="C168" t="s">
@@ -6975,7 +6949,7 @@
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B170" s="27" t="s">
+      <c r="B170" s="25" t="s">
         <v>306</v>
       </c>
       <c r="C170" t="s">
@@ -7135,7 +7109,7 @@
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B186" s="27" t="s">
+      <c r="B186" s="25" t="s">
         <v>334</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -7634,7 +7608,7 @@
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B232" s="27" t="s">
+      <c r="B232" s="25" t="s">
         <v>414</v>
       </c>
       <c r="C232" t="s">
@@ -7689,7 +7663,7 @@
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B237" s="27" t="s">
+      <c r="B237" s="25" t="s">
         <v>424</v>
       </c>
       <c r="C237" t="s">
@@ -7788,7 +7762,7 @@
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B246" s="27" t="s">
+      <c r="B246" s="25" t="s">
         <v>264</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -7858,79 +7832,79 @@
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C254" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C255" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D255" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C256" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D256" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C257" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D257" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C258" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D258" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C259" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D259" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C260" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D260" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -7942,66 +7916,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFCD286-CDF1-470B-968C-DE37035E9583}">
-  <dimension ref="B6:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="23" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>555</v>
-      </c>
-      <c r="C9" t="s">
-        <v>556</v>
-      </c>
-      <c r="D9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>557</v>
-      </c>
-      <c r="D10" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>560</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD3380B-412D-4142-8571-BD521C7E77FE}">
   <dimension ref="B4:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8015,70 +7934,70 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>547</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>552</v>
+        <v>544</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F8" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D9" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F9" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E10" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="20"/>
+      <c r="B11" s="19"/>
       <c r="C11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D11" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E11" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -8088,7 +8007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F704023-C365-41BD-8133-62CB8DE8EE09}">
   <dimension ref="A4:D16"/>
   <sheetViews>
@@ -8105,98 +8024,98 @@
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>528</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>576</v>
+        <v>525</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>573</v>
       </c>
       <c r="D5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>569</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>577</v>
+        <v>566</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>574</v>
       </c>
       <c r="D6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>570</v>
-      </c>
-      <c r="C7" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="D7" t="s">
         <v>579</v>
-      </c>
-      <c r="D7" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>578</v>
+        <v>568</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>575</v>
       </c>
       <c r="D8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C11" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D11" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B14" t="s">
-        <v>528</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>576</v>
+        <v>525</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>573</v>
       </c>
       <c r="D14" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>569</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>577</v>
+        <v>566</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>574</v>
       </c>
       <c r="D15" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C16" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D16" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -8207,7 +8126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51597C8F-19B3-4F43-A157-B8DF13B3FEB4}">
   <dimension ref="A2:C4"/>
   <sheetViews>
@@ -8219,20 +8138,20 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -8241,12 +8160,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2CE8BA-60DD-4766-A185-A00DD6E5D280}">
   <dimension ref="D3:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8256,12 +8175,12 @@
   <sheetData>
     <row r="3" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -8269,7 +8188,7 @@
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -8277,7 +8196,7 @@
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -8285,7 +8204,7 @@
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -8293,7 +8212,7 @@
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -8301,23 +8220,23 @@
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="14" t="s">
-        <v>589</v>
+      <c r="D10" s="13" t="s">
+        <v>586</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="14" t="s">
-        <v>590</v>
+      <c r="D11" s="13" t="s">
+        <v>587</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -8352,18 +8271,18 @@
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F33" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F34" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -8389,49 +8308,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:C3"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="69.5" customWidth="1"/>
-    <col min="3" max="3" width="51.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="C3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16416F09-6254-4ADB-B4E1-238E5F623979}">
   <dimension ref="B1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8442,125 +8323,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="13" t="s">
-        <v>468</v>
+      <c r="B1" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>461</v>
+      <c r="B2" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
-        <v>469</v>
+      <c r="B8" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D11" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="15" t="s">
-        <v>490</v>
+      <c r="B17" s="14" t="s">
+        <v>487</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="D17" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="13" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="14" t="s">
+      <c r="D19" t="s">
         <v>479</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="13" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="14" t="s">
+      <c r="D20" t="s">
         <v>481</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="13" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="14" t="s">
+      <c r="D21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>484</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="D21" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="D22" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D23" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -8599,7 +8480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E76285-F245-4C5D-AD0B-FE0851F9DCA2}">
   <dimension ref="B3:D36"/>
   <sheetViews>
@@ -8615,214 +8496,214 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D3" t="s">
         <v>492</v>
-      </c>
-      <c r="D3" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D4" t="s">
         <v>493</v>
-      </c>
-      <c r="D4" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D5" t="s">
         <v>494</v>
-      </c>
-      <c r="D5" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C8" t="s">
+        <v>496</v>
+      </c>
+      <c r="D8" t="s">
         <v>499</v>
       </c>
-      <c r="D8" t="s">
-        <v>502</v>
-      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="D9" t="s">
         <v>492</v>
-      </c>
-      <c r="D9" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D10" t="s">
         <v>500</v>
-      </c>
-      <c r="D10" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D11" t="s">
         <v>501</v>
       </c>
-      <c r="D11" t="s">
-        <v>504</v>
-      </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="D12" t="s">
         <v>493</v>
       </c>
-      <c r="D12" t="s">
-        <v>496</v>
-      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="D13" t="s">
         <v>494</v>
-      </c>
-      <c r="D13" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C16" t="s">
+        <v>496</v>
+      </c>
+      <c r="D16" t="s">
         <v>499</v>
-      </c>
-      <c r="D16" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
+        <v>489</v>
+      </c>
+      <c r="D17" t="s">
         <v>492</v>
-      </c>
-      <c r="D17" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
+        <v>497</v>
+      </c>
+      <c r="D18" t="s">
         <v>500</v>
       </c>
-      <c r="D18" t="s">
-        <v>503</v>
-      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="D19" t="s">
         <v>501</v>
       </c>
-      <c r="D19" t="s">
-        <v>504</v>
-      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D20" t="s">
         <v>493</v>
-      </c>
-      <c r="D20" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
+        <v>491</v>
+      </c>
+      <c r="D21" t="s">
         <v>494</v>
-      </c>
-      <c r="D21" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C26" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D27" s="17"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D28" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D29" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D30" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
+        <v>489</v>
+      </c>
+      <c r="D32" t="s">
         <v>492</v>
-      </c>
-      <c r="D32" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
+        <v>490</v>
+      </c>
+      <c r="D33" t="s">
         <v>493</v>
-      </c>
-      <c r="D33" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
+        <v>491</v>
+      </c>
+      <c r="D34" t="s">
         <v>494</v>
-      </c>
-      <c r="D34" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D35" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D36" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -8832,7 +8713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F487A52-C981-4291-A7F1-3F7002F198E5}">
   <dimension ref="A3:E32"/>
   <sheetViews>
@@ -8849,124 +8730,124 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
+      <c r="A3" s="17"/>
       <c r="B3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="15" t="s">
-        <v>490</v>
+      <c r="A16" s="17"/>
+      <c r="B16" s="14" t="s">
+        <v>487</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="14" t="s">
+      <c r="D18" t="s">
         <v>479</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="15" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="16" t="s">
+      <c r="D19" t="s">
         <v>481</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="15" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="16" t="s">
+      <c r="D20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E21" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="D21" t="s">
-        <v>487</v>
-      </c>
-      <c r="E21" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" t="s">
-        <v>506</v>
-      </c>
       <c r="C26" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>508</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>513</v>
+        <v>505</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D28" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D29" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
+        <v>498</v>
+      </c>
+      <c r="D30" t="s">
         <v>501</v>
-      </c>
-      <c r="D30" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D31" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D32" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -8976,7 +8857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35FC653-1B7D-40BF-9B8B-AF761FCDD977}">
   <dimension ref="A4:D14"/>
   <sheetViews>
@@ -8993,65 +8874,65 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>508</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>513</v>
+        <v>505</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
+        <v>498</v>
+      </c>
+      <c r="D8" t="s">
         <v>501</v>
-      </c>
-      <c r="D8" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D9" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D10" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -9061,7 +8942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0B56D2-C96A-43DA-98DF-4E47C3CF98D4}">
   <dimension ref="B3:F16"/>
   <sheetViews>
@@ -9078,91 +8959,91 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D8" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D9" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="D14" s="14" t="s">
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="D15" t="s">
+        <v>541</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="19" t="s">
-        <v>541</v>
-      </c>
-      <c r="D15" t="s">
-        <v>544</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>546</v>
-      </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
+        <v>539</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>542</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -9173,4 +9054,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFCD286-CDF1-470B-968C-DE37035E9583}">
+  <dimension ref="B6:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="22" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C9" t="s">
+        <v>553</v>
+      </c>
+      <c r="D9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>554</v>
+      </c>
+      <c r="D10" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/work/V1.2_新增字段(1月6号更新).xlsx
+++ b/work/V1.2_新增字段(1月6号更新).xlsx
@@ -8,24 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1ACF42-6F48-4461-BE37-3A3FD0A8B364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066525C4-8508-46F3-B9C9-580D99332425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="上部结构材料" sheetId="3" r:id="rId3"/>
-    <sheet name="无损检测" sheetId="5" r:id="rId4"/>
-    <sheet name="特殊检测" sheetId="6" r:id="rId5"/>
-    <sheet name="动载检测" sheetId="7" r:id="rId6"/>
-    <sheet name="桥梁巡查" sheetId="8" r:id="rId7"/>
-    <sheet name="危桥管理" sheetId="9" r:id="rId8"/>
-    <sheet name="桥梁列表_档案" sheetId="11" r:id="rId9"/>
-    <sheet name="维修加固-业务台账" sheetId="10" r:id="rId10"/>
-    <sheet name="沟通记录" sheetId="12" r:id="rId11"/>
-    <sheet name="系统设置_组织管理" sheetId="13" r:id="rId12"/>
-    <sheet name="一桥一档_档案查询" sheetId="14" r:id="rId13"/>
+    <sheet name="Sheet4" sheetId="17" r:id="rId3"/>
+    <sheet name="上部结构材料" sheetId="3" r:id="rId4"/>
+    <sheet name="无损检测" sheetId="5" r:id="rId5"/>
+    <sheet name="特殊检测" sheetId="6" r:id="rId6"/>
+    <sheet name="动载检测" sheetId="7" r:id="rId7"/>
+    <sheet name="桥梁巡查" sheetId="8" r:id="rId8"/>
+    <sheet name="危桥管理" sheetId="9" r:id="rId9"/>
+    <sheet name="桥梁列表_档案" sheetId="11" r:id="rId10"/>
+    <sheet name="维修加固-业务台账" sheetId="10" r:id="rId11"/>
+    <sheet name="沟通记录" sheetId="12" r:id="rId12"/>
+    <sheet name="系统设置_组织管理" sheetId="13" r:id="rId13"/>
+    <sheet name="一桥一档_档案查询" sheetId="14" r:id="rId14"/>
+    <sheet name="新增单位" sheetId="16" r:id="rId15"/>
+    <sheet name="新增单位bug" sheetId="18" r:id="rId16"/>
+    <sheet name="新增用户bug" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -103,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="632">
   <si>
     <t>字段名</t>
   </si>
@@ -4123,6 +4127,14 @@
   </si>
   <si>
     <t>bge_video(桥梁音视频表)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>音视频类型(1视频 2音频)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -4559,7 +4571,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4608,7 +4620,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000010C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4663,7 +4675,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4729,7 +4741,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4773,7 +4785,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4791,6 +4803,197 @@
         <a:xfrm>
           <a:off x="5162550" y="1905000"/>
           <a:ext cx="10742857" cy="6542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>217387</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE33045E-BA9C-453A-9EC8-733758322CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="1381125"/>
+          <a:ext cx="13504762" cy="2790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>646246</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>170578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9147694E-9F91-4D47-A428-BBC765A8D2B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="76200"/>
+          <a:ext cx="11628571" cy="6971428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>275837</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>75982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3F4A71-0232-4DDB-B56B-0358C46EB06E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11572875" y="504825"/>
+          <a:ext cx="3104762" cy="1742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>94232</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>27561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{931CACC4-7569-4AA6-B553-2CB06FE686B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="419100"/>
+          <a:ext cx="8142857" cy="8114286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5099,11 +5302,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E260"/>
+  <dimension ref="B1:E261"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C266" sqref="C266"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7907,6 +8110,17 @@
         <v>614</v>
       </c>
     </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>630</v>
+      </c>
+      <c r="C261" t="s">
+        <v>631</v>
+      </c>
+      <c r="D261" t="s">
+        <v>614</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7916,6 +8130,61 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFCD286-CDF1-470B-968C-DE37035E9583}">
+  <dimension ref="B6:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="22" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C9" t="s">
+        <v>553</v>
+      </c>
+      <c r="D9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>554</v>
+      </c>
+      <c r="D10" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD3380B-412D-4142-8571-BD521C7E77FE}">
   <dimension ref="B4:F11"/>
   <sheetViews>
@@ -8007,7 +8276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F704023-C365-41BD-8133-62CB8DE8EE09}">
   <dimension ref="A4:D16"/>
   <sheetViews>
@@ -8126,7 +8395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51597C8F-19B3-4F43-A157-B8DF13B3FEB4}">
   <dimension ref="A2:C4"/>
   <sheetViews>
@@ -8160,11 +8429,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2CE8BA-60DD-4766-A185-A00DD6E5D280}">
   <dimension ref="D3:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -8243,6 +8512,60 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F254A446-B9D2-460B-A807-3B8599E45D48}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29CFA5A-E1D8-4C8E-8CF1-21FBAA8B932E}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4EE7AC-D081-4D05-8F5D-E3B3FC3E0291}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8294,6 +8617,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA90F8C-E51A-4A32-9EB8-449A0E30615C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8307,7 +8643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16416F09-6254-4ADB-B4E1-238E5F623979}">
   <dimension ref="B1:D23"/>
   <sheetViews>
@@ -8480,7 +8816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E76285-F245-4C5D-AD0B-FE0851F9DCA2}">
   <dimension ref="B3:D36"/>
   <sheetViews>
@@ -8713,7 +9049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F487A52-C981-4291-A7F1-3F7002F198E5}">
   <dimension ref="A3:E32"/>
   <sheetViews>
@@ -8857,7 +9193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35FC653-1B7D-40BF-9B8B-AF761FCDD977}">
   <dimension ref="A4:D14"/>
   <sheetViews>
@@ -8942,7 +9278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0B56D2-C96A-43DA-98DF-4E47C3CF98D4}">
   <dimension ref="B3:F16"/>
   <sheetViews>
@@ -9054,59 +9390,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFCD286-CDF1-470B-968C-DE37035E9583}">
-  <dimension ref="B6:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="21" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C9" t="s">
-        <v>553</v>
-      </c>
-      <c r="D9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>554</v>
-      </c>
-      <c r="D10" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>557</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/work/V1.2_新增字段(1月6号更新).xlsx
+++ b/work/V1.2_新增字段(1月6号更新).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066525C4-8508-46F3-B9C9-580D99332425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F9DEF8-0751-4316-9DD5-18B3ED2245B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,11 @@
     <sheet name="沟通记录" sheetId="12" r:id="rId12"/>
     <sheet name="系统设置_组织管理" sheetId="13" r:id="rId13"/>
     <sheet name="一桥一档_档案查询" sheetId="14" r:id="rId14"/>
-    <sheet name="新增单位" sheetId="16" r:id="rId15"/>
-    <sheet name="新增单位bug" sheetId="18" r:id="rId16"/>
-    <sheet name="新增用户bug" sheetId="19" r:id="rId17"/>
+    <sheet name="新增用户bug" sheetId="19" r:id="rId15"/>
+    <sheet name="人工监测bug" sheetId="20" r:id="rId16"/>
+    <sheet name="新增单位bug" sheetId="18" r:id="rId17"/>
+    <sheet name="危桥列表导出Excle接口" sheetId="21" r:id="rId18"/>
+    <sheet name="新增单位" sheetId="16" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -102,12 +104,79 @@
         </r>
       </text>
     </comment>
+    <comment ref="C179" authorId="0" shapeId="0" xr:uid="{36BEECB8-D1DB-49B5-B7B2-FC96570223B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>01-13新增</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C180" authorId="0" shapeId="0" xr:uid="{7A30A0F4-8E53-43BE-B5D5-31BC6BF4E6E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>01-1新增</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C181" authorId="0" shapeId="0" xr:uid="{F374B52B-0DB6-428D-94EE-1221061CEF85}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>01-13新增</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="648">
   <si>
     <t>字段名</t>
   </si>
@@ -279,9 +348,6 @@
   </si>
   <si>
     <t>引桥桥纵坡坡度(v1.2新增字段)</t>
-  </si>
-  <si>
-    <t>barricade_type</t>
   </si>
   <si>
     <t>挡墙类型(v1.2新增字段)(混凝土护岸,植被护岸)</t>
@@ -4135,6 +4201,73 @@
   </si>
   <si>
     <t>音视频类型(1视频 2音频)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.只能获取当前登录单位或者管辖下的子单位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.获取人工监测数据列表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bs/api/bridgeService/BridgeManualMonitor/GetMonitorList</t>
+  </si>
+  <si>
+    <t>只能获取本单位和管辖单位的数据</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bs/api/bridgeService/BridgeManualMonitor/GetMonitorCompanyList</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.只显示本单位管辖的桥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bs/api/bridgeService/Task/GetBridgeList?pageIndex=1&amp;pageSize=10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>userTrueName修改为Account</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经为前端提供接口，等待前端对接</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>形式(附属工程--引道挡墙)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度(附属工程--引道挡墙)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度(附属工程--引道挡墙)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>barricade_type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>form_barricade</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>height_barricade</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>length_barricade</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经对接了</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -4142,7 +4275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4288,6 +4421,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -4384,7 +4538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4415,6 +4569,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4571,7 +4727,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4620,7 +4776,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000010C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4675,7 +4831,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4741,7 +4897,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4785,7 +4941,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4818,23 +4974,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>217387</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9176</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1866512</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180757</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE33045E-BA9C-453A-9EC8-733758322CD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4850,8 +5006,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3171825" y="1381125"/>
-          <a:ext cx="13504762" cy="2790476"/>
+          <a:off x="9048750" y="5676900"/>
+          <a:ext cx="3104762" cy="1742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>94232</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>27561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="419100"/>
+          <a:ext cx="8142857" cy="8114286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4883,7 +5083,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9147694E-9F91-4D47-A428-BBC765A8D2B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4916,23 +5116,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>275837</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>75982</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>217387</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9176</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3F4A71-0232-4DDB-B56B-0358C46EB06E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4948,52 +5148,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11572875" y="504825"/>
-          <a:ext cx="3104762" cy="1742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>94232</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>27561</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{931CACC4-7569-4AA6-B553-2CB06FE686B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="866775" y="419100"/>
-          <a:ext cx="8142857" cy="8114286"/>
+          <a:off x="3171825" y="1381125"/>
+          <a:ext cx="13504762" cy="2790476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5302,11 +5458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E261"/>
+  <dimension ref="B1:E263"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5331,7 +5487,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
@@ -5466,7 +5622,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -5480,7 +5636,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -5628,24 +5784,24 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
+        <v>643</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D29" t="s">
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
         <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>54</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -5653,2472 +5809,2505 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
         <v>56</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>57</v>
-      </c>
-      <c r="D32" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
         <v>59</v>
       </c>
-      <c r="C33" t="s">
-        <v>60</v>
-      </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
         <v>61</v>
       </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
         <v>65</v>
       </c>
-      <c r="C36" t="s">
-        <v>66</v>
-      </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
         <v>67</v>
       </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
         <v>69</v>
       </c>
-      <c r="C38" t="s">
-        <v>70</v>
-      </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
         <v>71</v>
       </c>
-      <c r="C39" t="s">
-        <v>72</v>
-      </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
         <v>77</v>
       </c>
-      <c r="C42" t="s">
-        <v>78</v>
-      </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
         <v>79</v>
       </c>
-      <c r="C43" t="s">
-        <v>80</v>
-      </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
         <v>81</v>
       </c>
-      <c r="C44" t="s">
-        <v>82</v>
-      </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
         <v>83</v>
       </c>
-      <c r="C45" t="s">
-        <v>84</v>
-      </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
         <v>85</v>
       </c>
-      <c r="C46" t="s">
-        <v>86</v>
-      </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
+        <v>611</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D51" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D52" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="D53" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D54" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="D55" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="D56" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D57" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="D59" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D60" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D61" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D62" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="D63" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D64" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" t="s">
+        <v>609</v>
+      </c>
+      <c r="D68" t="s">
         <v>121</v>
-      </c>
-      <c r="C68" t="s">
-        <v>610</v>
-      </c>
-      <c r="D68" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" t="s">
         <v>123</v>
       </c>
-      <c r="C69" t="s">
-        <v>124</v>
-      </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" t="s">
         <v>125</v>
       </c>
-      <c r="C70" t="s">
-        <v>126</v>
-      </c>
       <c r="D70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" t="s">
         <v>130</v>
       </c>
-      <c r="C73" t="s">
-        <v>131</v>
-      </c>
       <c r="D73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" t="s">
         <v>132</v>
       </c>
-      <c r="C74" t="s">
-        <v>133</v>
-      </c>
       <c r="D74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" t="s">
         <v>134</v>
       </c>
-      <c r="C75" t="s">
-        <v>135</v>
-      </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" t="s">
         <v>136</v>
       </c>
-      <c r="C76" t="s">
-        <v>137</v>
-      </c>
       <c r="D76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C77" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" t="s">
         <v>139</v>
       </c>
-      <c r="C78" t="s">
-        <v>140</v>
-      </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" t="s">
         <v>141</v>
       </c>
-      <c r="C79" t="s">
-        <v>142</v>
-      </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" t="s">
         <v>143</v>
       </c>
-      <c r="C80" t="s">
-        <v>144</v>
-      </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" t="s">
         <v>148</v>
       </c>
-      <c r="C83" t="s">
-        <v>149</v>
-      </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" t="s">
         <v>150</v>
       </c>
-      <c r="C84" t="s">
-        <v>151</v>
-      </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="D86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" t="s">
         <v>155</v>
       </c>
-      <c r="C87" t="s">
-        <v>156</v>
-      </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" t="s">
         <v>157</v>
       </c>
-      <c r="C88" t="s">
-        <v>158</v>
-      </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" t="s">
         <v>159</v>
       </c>
-      <c r="C89" t="s">
-        <v>160</v>
-      </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C90" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="D91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" t="s">
         <v>164</v>
       </c>
-      <c r="C92" t="s">
-        <v>165</v>
-      </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
+        <v>165</v>
+      </c>
+      <c r="C93" t="s">
         <v>166</v>
       </c>
-      <c r="C93" t="s">
-        <v>167</v>
-      </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
+        <v>167</v>
+      </c>
+      <c r="C94" t="s">
         <v>168</v>
       </c>
-      <c r="C94" t="s">
-        <v>169</v>
-      </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" t="s">
         <v>170</v>
       </c>
-      <c r="C95" t="s">
-        <v>171</v>
-      </c>
       <c r="D95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" t="s">
         <v>172</v>
       </c>
-      <c r="C96" t="s">
-        <v>173</v>
-      </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" t="s">
+        <v>607</v>
+      </c>
+      <c r="D99" t="s">
         <v>174</v>
       </c>
-      <c r="C99" t="s">
-        <v>608</v>
-      </c>
-      <c r="D99" t="s">
-        <v>175</v>
-      </c>
       <c r="E99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" t="s">
         <v>176</v>
       </c>
-      <c r="C100" t="s">
-        <v>177</v>
-      </c>
       <c r="D100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" t="s">
         <v>178</v>
       </c>
-      <c r="C101" t="s">
-        <v>179</v>
-      </c>
       <c r="D101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C103" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" t="s">
         <v>182</v>
       </c>
-      <c r="C104" t="s">
-        <v>183</v>
-      </c>
       <c r="D104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D105" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" t="s">
         <v>185</v>
       </c>
-      <c r="C106" t="s">
-        <v>186</v>
-      </c>
       <c r="D106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
+        <v>186</v>
+      </c>
+      <c r="C107" t="s">
         <v>187</v>
       </c>
-      <c r="C107" t="s">
-        <v>188</v>
-      </c>
       <c r="D107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C108" t="s">
         <v>189</v>
       </c>
-      <c r="C108" t="s">
-        <v>190</v>
-      </c>
       <c r="D108" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" t="s">
         <v>191</v>
       </c>
-      <c r="C109" t="s">
-        <v>192</v>
-      </c>
       <c r="D109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C110" t="s">
         <v>193</v>
       </c>
-      <c r="C110" t="s">
-        <v>194</v>
-      </c>
       <c r="D110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C111" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
+        <v>195</v>
+      </c>
+      <c r="C112" t="s">
         <v>196</v>
       </c>
-      <c r="C112" t="s">
-        <v>197</v>
-      </c>
       <c r="D112" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
+        <v>197</v>
+      </c>
+      <c r="C113" t="s">
         <v>198</v>
       </c>
-      <c r="C113" t="s">
-        <v>199</v>
-      </c>
       <c r="D113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" t="s">
         <v>200</v>
       </c>
-      <c r="C114" t="s">
-        <v>201</v>
-      </c>
       <c r="D114" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" t="s">
         <v>202</v>
       </c>
-      <c r="C115" t="s">
-        <v>203</v>
-      </c>
       <c r="D115" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" t="s">
         <v>204</v>
       </c>
-      <c r="C116" t="s">
-        <v>205</v>
-      </c>
       <c r="D116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C117" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D117" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
+        <v>206</v>
+      </c>
+      <c r="C118" t="s">
         <v>207</v>
       </c>
-      <c r="C118" t="s">
-        <v>208</v>
-      </c>
       <c r="D118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
+        <v>208</v>
+      </c>
+      <c r="C119" t="s">
         <v>209</v>
       </c>
-      <c r="C119" t="s">
-        <v>210</v>
-      </c>
       <c r="D119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C120" t="s">
         <v>211</v>
       </c>
-      <c r="C120" t="s">
-        <v>212</v>
-      </c>
       <c r="D120" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
+        <v>212</v>
+      </c>
+      <c r="C121" t="s">
         <v>213</v>
       </c>
-      <c r="C121" t="s">
-        <v>214</v>
-      </c>
       <c r="D121" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
+        <v>214</v>
+      </c>
+      <c r="C122" t="s">
         <v>215</v>
       </c>
-      <c r="C122" t="s">
-        <v>216</v>
-      </c>
       <c r="D122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
+        <v>216</v>
+      </c>
+      <c r="C123" t="s">
         <v>217</v>
       </c>
-      <c r="C123" t="s">
-        <v>218</v>
-      </c>
       <c r="D123" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C124" t="s">
         <v>219</v>
       </c>
-      <c r="C124" t="s">
-        <v>220</v>
-      </c>
       <c r="D124" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C125" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D125" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E125" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
+        <v>221</v>
+      </c>
+      <c r="C126" t="s">
         <v>222</v>
       </c>
-      <c r="C126" t="s">
-        <v>223</v>
-      </c>
       <c r="D126" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
+        <v>223</v>
+      </c>
+      <c r="C127" t="s">
         <v>224</v>
       </c>
-      <c r="C127" t="s">
-        <v>225</v>
-      </c>
       <c r="D127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
+        <v>225</v>
+      </c>
+      <c r="C128" t="s">
         <v>226</v>
       </c>
-      <c r="C128" t="s">
-        <v>227</v>
-      </c>
       <c r="D128" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
+        <v>227</v>
+      </c>
+      <c r="C129" t="s">
         <v>228</v>
       </c>
-      <c r="C129" t="s">
-        <v>229</v>
-      </c>
       <c r="D129" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C130" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D130" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
+        <v>230</v>
+      </c>
+      <c r="C131" t="s">
         <v>231</v>
       </c>
-      <c r="C131" t="s">
-        <v>232</v>
-      </c>
       <c r="D131" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
+        <v>232</v>
+      </c>
+      <c r="C132" t="s">
         <v>233</v>
       </c>
-      <c r="C132" t="s">
-        <v>234</v>
-      </c>
       <c r="D132" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
+        <v>234</v>
+      </c>
+      <c r="C133" t="s">
         <v>235</v>
       </c>
-      <c r="C133" t="s">
-        <v>236</v>
-      </c>
       <c r="D133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
+        <v>236</v>
+      </c>
+      <c r="C134" t="s">
         <v>237</v>
       </c>
-      <c r="C134" t="s">
-        <v>238</v>
-      </c>
       <c r="D134" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C136" t="s">
         <v>239</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>240</v>
-      </c>
-      <c r="D136" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
+        <v>241</v>
+      </c>
+      <c r="C137" t="s">
         <v>242</v>
       </c>
-      <c r="C137" t="s">
-        <v>243</v>
-      </c>
       <c r="D137" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
+        <v>243</v>
+      </c>
+      <c r="C138" t="s">
         <v>244</v>
       </c>
-      <c r="C138" t="s">
-        <v>245</v>
-      </c>
       <c r="D138" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
+        <v>245</v>
+      </c>
+      <c r="C139" t="s">
         <v>246</v>
       </c>
-      <c r="C139" t="s">
-        <v>247</v>
-      </c>
       <c r="D139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C140" t="s">
         <v>248</v>
       </c>
-      <c r="C140" t="s">
-        <v>249</v>
-      </c>
       <c r="D140" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
+        <v>249</v>
+      </c>
+      <c r="C141" t="s">
         <v>250</v>
       </c>
-      <c r="C141" t="s">
-        <v>251</v>
-      </c>
       <c r="D141" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
+        <v>251</v>
+      </c>
+      <c r="C142" t="s">
         <v>252</v>
       </c>
-      <c r="C142" t="s">
-        <v>253</v>
-      </c>
       <c r="D142" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
+        <v>253</v>
+      </c>
+      <c r="C143" t="s">
         <v>254</v>
       </c>
-      <c r="C143" t="s">
-        <v>255</v>
-      </c>
       <c r="D143" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
+        <v>255</v>
+      </c>
+      <c r="C144" t="s">
         <v>256</v>
       </c>
-      <c r="C144" t="s">
-        <v>257</v>
-      </c>
       <c r="D144" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C145" t="s">
         <v>258</v>
       </c>
-      <c r="C145" t="s">
-        <v>259</v>
-      </c>
       <c r="D145" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
+        <v>259</v>
+      </c>
+      <c r="C146" t="s">
         <v>260</v>
       </c>
-      <c r="C146" t="s">
-        <v>261</v>
-      </c>
       <c r="D146" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
+        <v>261</v>
+      </c>
+      <c r="C147" t="s">
         <v>262</v>
       </c>
-      <c r="C147" t="s">
-        <v>263</v>
-      </c>
       <c r="D147" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
+        <v>263</v>
+      </c>
+      <c r="C148" t="s">
         <v>264</v>
       </c>
-      <c r="C148" t="s">
-        <v>265</v>
-      </c>
       <c r="D148" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D149" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
+        <v>266</v>
+      </c>
+      <c r="C150" t="s">
         <v>267</v>
       </c>
-      <c r="C150" t="s">
-        <v>268</v>
-      </c>
       <c r="D150" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
+        <v>268</v>
+      </c>
+      <c r="C151" t="s">
         <v>269</v>
       </c>
-      <c r="C151" t="s">
-        <v>270</v>
-      </c>
       <c r="D151" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
+        <v>270</v>
+      </c>
+      <c r="C152" t="s">
         <v>271</v>
       </c>
-      <c r="C152" t="s">
-        <v>272</v>
-      </c>
       <c r="D152" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
+        <v>272</v>
+      </c>
+      <c r="C154" t="s">
         <v>273</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>274</v>
-      </c>
-      <c r="D154" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
+        <v>275</v>
+      </c>
+      <c r="C155" t="s">
         <v>276</v>
       </c>
-      <c r="C155" t="s">
-        <v>277</v>
-      </c>
       <c r="D155" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
+        <v>277</v>
+      </c>
+      <c r="C156" t="s">
         <v>278</v>
       </c>
-      <c r="C156" t="s">
-        <v>279</v>
-      </c>
       <c r="D156" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
+        <v>279</v>
+      </c>
+      <c r="C157" t="s">
         <v>280</v>
       </c>
-      <c r="C157" t="s">
-        <v>281</v>
-      </c>
       <c r="D157" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C158" t="s">
         <v>282</v>
       </c>
-      <c r="C158" t="s">
-        <v>283</v>
-      </c>
       <c r="D158" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
+        <v>283</v>
+      </c>
+      <c r="C159" t="s">
         <v>284</v>
       </c>
-      <c r="C159" t="s">
-        <v>285</v>
-      </c>
       <c r="D159" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
+        <v>285</v>
+      </c>
+      <c r="C160" t="s">
         <v>286</v>
       </c>
-      <c r="C160" t="s">
-        <v>287</v>
-      </c>
       <c r="D160" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
+        <v>287</v>
+      </c>
+      <c r="C161" t="s">
         <v>288</v>
       </c>
-      <c r="C161" t="s">
-        <v>289</v>
-      </c>
       <c r="D161" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C162" t="s">
         <v>290</v>
       </c>
-      <c r="C162" t="s">
-        <v>291</v>
-      </c>
       <c r="D162" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
+        <v>291</v>
+      </c>
+      <c r="C163" t="s">
         <v>292</v>
       </c>
-      <c r="C163" t="s">
-        <v>293</v>
-      </c>
       <c r="D163" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
+        <v>293</v>
+      </c>
+      <c r="C164" t="s">
         <v>294</v>
       </c>
-      <c r="C164" t="s">
-        <v>295</v>
-      </c>
       <c r="D164" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
+        <v>295</v>
+      </c>
+      <c r="C165" t="s">
         <v>296</v>
       </c>
-      <c r="C165" t="s">
-        <v>297</v>
-      </c>
       <c r="D165" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B166" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="C166" t="s">
         <v>298</v>
       </c>
-      <c r="C166" t="s">
-        <v>299</v>
-      </c>
       <c r="D166" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
+        <v>299</v>
+      </c>
+      <c r="C167" t="s">
         <v>300</v>
       </c>
-      <c r="C167" t="s">
-        <v>301</v>
-      </c>
       <c r="D167" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B168" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="C168" t="s">
         <v>302</v>
       </c>
-      <c r="C168" t="s">
-        <v>303</v>
-      </c>
       <c r="D168" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
+        <v>303</v>
+      </c>
+      <c r="C169" t="s">
         <v>304</v>
       </c>
-      <c r="C169" t="s">
-        <v>305</v>
-      </c>
       <c r="D169" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C170" t="s">
         <v>306</v>
       </c>
-      <c r="C170" t="s">
-        <v>307</v>
-      </c>
       <c r="D170" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
+        <v>307</v>
+      </c>
+      <c r="C171" t="s">
         <v>308</v>
       </c>
-      <c r="C171" t="s">
-        <v>309</v>
-      </c>
       <c r="D171" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
+        <v>309</v>
+      </c>
+      <c r="C172" t="s">
         <v>310</v>
       </c>
-      <c r="C172" t="s">
-        <v>311</v>
-      </c>
       <c r="D172" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
+        <v>311</v>
+      </c>
+      <c r="C173" t="s">
         <v>312</v>
       </c>
-      <c r="C173" t="s">
-        <v>313</v>
-      </c>
       <c r="D173" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
+        <v>313</v>
+      </c>
+      <c r="C174" t="s">
         <v>314</v>
       </c>
-      <c r="C174" t="s">
-        <v>315</v>
-      </c>
       <c r="D174" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
+        <v>315</v>
+      </c>
+      <c r="C175" t="s">
         <v>316</v>
       </c>
-      <c r="C175" t="s">
-        <v>317</v>
-      </c>
       <c r="D175" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
+        <v>317</v>
+      </c>
+      <c r="C176" t="s">
         <v>318</v>
       </c>
-      <c r="C176" t="s">
-        <v>319</v>
-      </c>
       <c r="D176" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
+        <v>319</v>
+      </c>
+      <c r="C177" t="s">
         <v>320</v>
       </c>
-      <c r="C177" t="s">
-        <v>321</v>
-      </c>
       <c r="D177" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
+        <v>321</v>
+      </c>
+      <c r="C178" t="s">
         <v>322</v>
       </c>
-      <c r="C178" t="s">
-        <v>323</v>
-      </c>
       <c r="D178" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B179" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C179" t="s">
+        <v>640</v>
+      </c>
+      <c r="D179" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B180" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C180" t="s">
+        <v>641</v>
+      </c>
+      <c r="D180" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B181" t="s">
-        <v>89</v>
+      <c r="B181" s="3" t="s">
+        <v>646</v>
       </c>
       <c r="C181" t="s">
-        <v>120</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B182" t="s">
-        <v>325</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D182" t="s">
-        <v>327</v>
-      </c>
-      <c r="E182" t="s">
-        <v>55</v>
+        <v>642</v>
+      </c>
+      <c r="D181" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>328</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D183" t="s">
-        <v>327</v>
-      </c>
-      <c r="E183" t="s">
-        <v>55</v>
+        <v>88</v>
+      </c>
+      <c r="C183" t="s">
+        <v>119</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>330</v>
-      </c>
-      <c r="C184" t="s">
-        <v>331</v>
+        <v>324</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="D184" t="s">
-        <v>327</v>
+        <v>326</v>
+      </c>
+      <c r="E184" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>332</v>
-      </c>
-      <c r="C185" t="s">
-        <v>333</v>
+        <v>327</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="D185" t="s">
-        <v>327</v>
+        <v>326</v>
+      </c>
+      <c r="E185" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B186" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>335</v>
+      <c r="B186" t="s">
+        <v>329</v>
+      </c>
+      <c r="C186" t="s">
+        <v>330</v>
       </c>
       <c r="D186" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>336</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
+      </c>
+      <c r="C187" t="s">
+        <v>332</v>
       </c>
       <c r="D187" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B188" t="s">
-        <v>338</v>
-      </c>
-      <c r="C188" t="s">
-        <v>339</v>
+      <c r="B188" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="D188" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>340</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="D189" t="s">
-        <v>327</v>
-      </c>
-      <c r="E189" t="s">
-        <v>55</v>
+        <v>326</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C190" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D190" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>344</v>
-      </c>
-      <c r="C191" t="s">
-        <v>345</v>
+        <v>339</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="D191" t="s">
-        <v>327</v>
+        <v>326</v>
+      </c>
+      <c r="E191" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C192" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D192" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C193" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D193" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C194" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D194" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C195" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D195" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C196" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D196" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C197" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D197" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>358</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
+      </c>
+      <c r="C198" t="s">
+        <v>354</v>
       </c>
       <c r="D198" t="s">
-        <v>327</v>
-      </c>
-      <c r="E198" t="s">
-        <v>55</v>
+        <v>326</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>360</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
+      </c>
+      <c r="C199" t="s">
+        <v>356</v>
       </c>
       <c r="D199" t="s">
-        <v>327</v>
-      </c>
-      <c r="E199" t="s">
-        <v>55</v>
+        <v>326</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>362</v>
-      </c>
-      <c r="C200" t="s">
-        <v>363</v>
+        <v>357</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="D200" t="s">
-        <v>327</v>
+        <v>326</v>
+      </c>
+      <c r="E200" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>364</v>
-      </c>
-      <c r="C201" t="s">
-        <v>365</v>
+        <v>359</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="D201" t="s">
-        <v>327</v>
+        <v>326</v>
+      </c>
+      <c r="E201" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>366</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
+      </c>
+      <c r="C202" t="s">
+        <v>362</v>
       </c>
       <c r="D202" t="s">
-        <v>327</v>
-      </c>
-      <c r="E202" t="s">
-        <v>55</v>
+        <v>326</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>368</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
+      </c>
+      <c r="C203" t="s">
+        <v>364</v>
       </c>
       <c r="D203" t="s">
-        <v>327</v>
-      </c>
-      <c r="E203" t="s">
-        <v>55</v>
+        <v>326</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>370</v>
-      </c>
-      <c r="C204" t="s">
-        <v>371</v>
+        <v>365</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="D204" t="s">
-        <v>327</v>
+        <v>326</v>
+      </c>
+      <c r="E204" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>372</v>
-      </c>
-      <c r="C205" t="s">
-        <v>373</v>
+        <v>367</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="D205" t="s">
-        <v>327</v>
+        <v>326</v>
+      </c>
+      <c r="E205" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>454</v>
+        <v>369</v>
       </c>
       <c r="C206" t="s">
-        <v>455</v>
+        <v>370</v>
       </c>
       <c r="D206" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>452</v>
+        <v>371</v>
       </c>
       <c r="C207" t="s">
+        <v>372</v>
+      </c>
+      <c r="D207" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
         <v>453</v>
       </c>
-      <c r="D207" t="s">
-        <v>327</v>
+      <c r="C208" t="s">
+        <v>454</v>
+      </c>
+      <c r="D208" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>89</v>
+        <v>451</v>
       </c>
       <c r="C209" t="s">
-        <v>120</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B210" t="s">
-        <v>375</v>
-      </c>
-      <c r="C210" t="s">
-        <v>376</v>
-      </c>
-      <c r="D210" t="s">
-        <v>377</v>
+        <v>452</v>
+      </c>
+      <c r="D209" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>378</v>
+        <v>88</v>
       </c>
       <c r="C211" t="s">
-        <v>379</v>
-      </c>
-      <c r="D211" t="s">
-        <v>377</v>
+        <v>119</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C212" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D212" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C213" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D213" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C214" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D214" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C215" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D215" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C216" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D216" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C217" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D217" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C218" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D218" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C219" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D219" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="C220" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D220" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="C221" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D221" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="C222" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D222" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C223" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D223" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="C224" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D224" t="s">
-        <v>377</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
+        <v>363</v>
+      </c>
+      <c r="C225" t="s">
+        <v>399</v>
+      </c>
+      <c r="D225" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>89</v>
+        <v>361</v>
       </c>
       <c r="C226" t="s">
-        <v>120</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B227" t="s">
-        <v>404</v>
-      </c>
-      <c r="C227" t="s">
-        <v>405</v>
-      </c>
-      <c r="D227" t="s">
-        <v>403</v>
+        <v>400</v>
+      </c>
+      <c r="D226" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>406</v>
+        <v>88</v>
       </c>
       <c r="C228" t="s">
-        <v>407</v>
-      </c>
-      <c r="D228" t="s">
-        <v>403</v>
+        <v>119</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C229" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D229" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C230" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D230" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C231" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D231" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B232" s="25" t="s">
-        <v>414</v>
+      <c r="B232" t="s">
+        <v>409</v>
       </c>
       <c r="C232" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D232" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C233" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D233" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B234" t="s">
-        <v>418</v>
+      <c r="B234" s="25" t="s">
+        <v>413</v>
       </c>
       <c r="C234" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D234" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C235" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D235" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C236" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D236" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B237" s="25" t="s">
-        <v>424</v>
+      <c r="B237" t="s">
+        <v>419</v>
       </c>
       <c r="C237" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D237" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C238" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D238" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B239" t="s">
-        <v>428</v>
+      <c r="B239" s="25" t="s">
+        <v>423</v>
       </c>
       <c r="C239" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D239" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C240" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D240" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C241" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D241" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C242" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D242" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C243" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D243" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C244" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D244" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C245" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D245" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B246" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>442</v>
+      <c r="B246" t="s">
+        <v>437</v>
+      </c>
+      <c r="C246" t="s">
+        <v>438</v>
       </c>
       <c r="D246" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>266</v>
+        <v>439</v>
       </c>
       <c r="C247" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D247" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B248" t="s">
-        <v>267</v>
-      </c>
-      <c r="C248" t="s">
-        <v>444</v>
+      <c r="B248" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="D248" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>445</v>
+        <v>265</v>
       </c>
       <c r="C249" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D249" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C250" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D250" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
+        <v>444</v>
+      </c>
+      <c r="C251" t="s">
+        <v>445</v>
+      </c>
+      <c r="D251" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B252" t="s">
+        <v>270</v>
+      </c>
+      <c r="C252" t="s">
+        <v>446</v>
+      </c>
+      <c r="D252" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
+        <v>447</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D251" t="s">
-        <v>403</v>
-      </c>
-      <c r="E251" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B254" t="s">
-        <v>615</v>
-      </c>
-      <c r="C254" t="s">
-        <v>616</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B255" t="s">
-        <v>617</v>
-      </c>
-      <c r="C255" t="s">
-        <v>618</v>
-      </c>
-      <c r="D255" t="s">
-        <v>614</v>
+      <c r="D253" t="s">
+        <v>402</v>
+      </c>
+      <c r="E253" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C256" t="s">
-        <v>620</v>
-      </c>
-      <c r="D256" t="s">
-        <v>614</v>
+        <v>615</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C257" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D257" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C258" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D258" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C259" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D259" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C260" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D260" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
+        <v>624</v>
+      </c>
+      <c r="C261" t="s">
+        <v>625</v>
+      </c>
+      <c r="D261" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>626</v>
+      </c>
+      <c r="C262" t="s">
+        <v>627</v>
+      </c>
+      <c r="D262" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
+        <v>629</v>
+      </c>
+      <c r="C263" t="s">
         <v>630</v>
       </c>
-      <c r="C261" t="s">
-        <v>631</v>
-      </c>
-      <c r="D261" t="s">
-        <v>614</v>
+      <c r="D263" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -8146,36 +8335,36 @@
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C9" t="s">
         <v>552</v>
       </c>
-      <c r="C9" t="s">
-        <v>553</v>
-      </c>
       <c r="D9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -8203,70 +8392,70 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D9" t="s">
+        <v>563</v>
+      </c>
+      <c r="E9" t="s">
         <v>564</v>
       </c>
-      <c r="E9" t="s">
-        <v>565</v>
-      </c>
       <c r="F9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="19"/>
       <c r="C11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -8293,98 +8482,98 @@
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C11" t="s">
         <v>569</v>
       </c>
-      <c r="C11" t="s">
-        <v>570</v>
-      </c>
       <c r="D11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>571</v>
+      </c>
+      <c r="B14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="B14" t="s">
-        <v>525</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>573</v>
-      </c>
       <c r="D14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -8407,20 +8596,20 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -8444,12 +8633,12 @@
   <sheetData>
     <row r="3" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -8457,7 +8646,7 @@
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -8465,7 +8654,7 @@
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -8473,7 +8662,7 @@
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -8481,7 +8670,7 @@
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -8489,7 +8678,7 @@
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -8497,7 +8686,7 @@
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D10" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -8505,7 +8694,7 @@
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D11" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -8519,49 +8708,150 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4EE7AC-D081-4D05-8F5D-E3B3FC3E0291}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="P44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="44" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P44" t="s">
+        <v>638</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CDE67D-A3A1-4608-9E0B-A9BD412A6207}">
+  <dimension ref="B3:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="52.875" customWidth="1"/>
+    <col min="3" max="3" width="69.25" customWidth="1"/>
+    <col min="4" max="4" width="60.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>633</v>
+      </c>
+      <c r="D5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>636</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>637</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29CFA5A-E1D8-4C8E-8CF1-21FBAA8B932E}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="L41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L41" t="s">
+        <v>639</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E16470-F1F2-478F-A347-44AAFC8E5FD1}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F254A446-B9D2-460B-A807-3B8599E45D48}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29CFA5A-E1D8-4C8E-8CF1-21FBAA8B932E}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4EE7AC-D081-4D05-8F5D-E3B3FC3E0291}">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8584,28 +8874,28 @@
   <sheetData>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
+        <v>470</v>
+      </c>
+      <c r="F33" t="s">
         <v>471</v>
-      </c>
-      <c r="F33" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
+        <v>472</v>
+      </c>
+      <c r="F34" t="s">
         <v>473</v>
-      </c>
-      <c r="F34" t="s">
-        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -8660,124 +8950,124 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>457</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D11" t="s">
         <v>469</v>
-      </c>
-      <c r="D11" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="D18" t="s">
         <v>476</v>
-      </c>
-      <c r="D18" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C19" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="D19" t="s">
         <v>478</v>
-      </c>
-      <c r="D19" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C20" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="D20" t="s">
         <v>480</v>
-      </c>
-      <c r="D20" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C22" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="D22" t="s">
         <v>483</v>
-      </c>
-      <c r="D22" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
+        <v>484</v>
+      </c>
+      <c r="D23" t="s">
         <v>485</v>
-      </c>
-      <c r="D23" t="s">
-        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -8832,139 +9122,139 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" t="s">
         <v>488</v>
       </c>
-      <c r="C3" t="s">
-        <v>489</v>
-      </c>
       <c r="D3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C8" t="s">
         <v>495</v>
       </c>
-      <c r="C8" t="s">
-        <v>496</v>
-      </c>
       <c r="D8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C9" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C12" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C19" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C20" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C26" t="s">
         <v>503</v>
-      </c>
-      <c r="C26" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -8972,74 +9262,74 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D35" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -9068,122 +9358,122 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C17" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="D17" t="s">
         <v>476</v>
-      </c>
-      <c r="D17" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C18" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="D18" t="s">
         <v>478</v>
-      </c>
-      <c r="D18" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C19" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="D19" t="s">
         <v>480</v>
-      </c>
-      <c r="D19" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C20" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C21" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="D21" t="s">
         <v>483</v>
       </c>
-      <c r="D21" t="s">
-        <v>484</v>
-      </c>
       <c r="E21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D29" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -9212,63 +9502,63 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -9295,91 +9585,91 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C15" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D15" t="s">
-        <v>541</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>543</v>
-      </c>
-      <c r="F15" s="26"/>
+        <v>540</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>

--- a/work/V1.2_新增字段(1月6号更新).xlsx
+++ b/work/V1.2_新增字段(1月6号更新).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F9DEF8-0751-4316-9DD5-18B3ED2245B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BDC84D-7AEC-4604-9152-025F75A4F21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="649">
   <si>
     <t>字段名</t>
   </si>
@@ -4268,6 +4268,10 @@
   </si>
   <si>
     <t>已经对接了</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>危桥这块还有其他的改动需要改</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -5132,7 +5136,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8821,20 +8825,25 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="C5"/>
+  <dimension ref="C5:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>647</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -8850,8 +8859,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/work/V1.2_新增字段(1月6号更新).xlsx
+++ b/work/V1.2_新增字段(1月6号更新).xlsx
@@ -1,39 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BDC84D-7AEC-4604-9152-025F75A4F21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B16E3A3-D12E-4CE2-B175-AA095D076756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="17" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="17" r:id="rId3"/>
-    <sheet name="上部结构材料" sheetId="3" r:id="rId4"/>
-    <sheet name="无损检测" sheetId="5" r:id="rId5"/>
-    <sheet name="特殊检测" sheetId="6" r:id="rId6"/>
-    <sheet name="动载检测" sheetId="7" r:id="rId7"/>
-    <sheet name="桥梁巡查" sheetId="8" r:id="rId8"/>
-    <sheet name="危桥管理" sheetId="9" r:id="rId9"/>
-    <sheet name="桥梁列表_档案" sheetId="11" r:id="rId10"/>
-    <sheet name="维修加固-业务台账" sheetId="10" r:id="rId11"/>
-    <sheet name="沟通记录" sheetId="12" r:id="rId12"/>
-    <sheet name="系统设置_组织管理" sheetId="13" r:id="rId13"/>
-    <sheet name="一桥一档_档案查询" sheetId="14" r:id="rId14"/>
-    <sheet name="新增用户bug" sheetId="19" r:id="rId15"/>
-    <sheet name="人工监测bug" sheetId="20" r:id="rId16"/>
-    <sheet name="新增单位bug" sheetId="18" r:id="rId17"/>
-    <sheet name="危桥列表导出Excle接口" sheetId="21" r:id="rId18"/>
-    <sheet name="新增单位" sheetId="16" r:id="rId19"/>
+    <sheet name="Sheet3" sheetId="24" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="17" r:id="rId4"/>
+    <sheet name="上部结构材料" sheetId="3" r:id="rId5"/>
+    <sheet name="无损检测" sheetId="5" r:id="rId6"/>
+    <sheet name="特殊检测" sheetId="6" r:id="rId7"/>
+    <sheet name="动载检测" sheetId="7" r:id="rId8"/>
+    <sheet name="桥梁巡查" sheetId="8" r:id="rId9"/>
+    <sheet name="危桥管理" sheetId="9" r:id="rId10"/>
+    <sheet name="桥梁列表_档案" sheetId="11" r:id="rId11"/>
+    <sheet name="维修加固-业务台账" sheetId="10" r:id="rId12"/>
+    <sheet name="沟通记录" sheetId="12" r:id="rId13"/>
+    <sheet name="系统设置_组织管理" sheetId="13" r:id="rId14"/>
+    <sheet name="一桥一档_档案查询" sheetId="14" r:id="rId15"/>
+    <sheet name="新增用户bug" sheetId="19" r:id="rId16"/>
+    <sheet name="人工监测bug" sheetId="20" r:id="rId17"/>
+    <sheet name="新增单位bug" sheetId="18" r:id="rId18"/>
+    <sheet name="危桥列表导出Excle接口" sheetId="21" r:id="rId19"/>
+    <sheet name="新增单位" sheetId="16" r:id="rId20"/>
+    <sheet name="组织结构栏没有数据" sheetId="22" r:id="rId21"/>
+    <sheet name="单位信息不完整" sheetId="23" r:id="rId22"/>
+    <sheet name="沟通记录缺少序号" sheetId="25" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -176,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="662">
   <si>
     <t>字段名</t>
   </si>
@@ -4272,6 +4277,47 @@
   </si>
   <si>
     <t>危桥这块还有其他的改动需要改</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>institution_extra</t>
+  </si>
+  <si>
+    <t>institution_extra(单位额外信息表)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner_company_name</t>
+  </si>
+  <si>
+    <t>owner_company_id</t>
+  </si>
+  <si>
+    <t>maintain_company_name</t>
+  </si>
+  <si>
+    <t>maintain_company_id</t>
+  </si>
+  <si>
+    <t>institution_id</t>
+  </si>
+  <si>
+    <t>institution表主键Id</t>
+  </si>
+  <si>
+    <t>管养单位id</t>
+  </si>
+  <si>
+    <t>管养单位名字</t>
+  </si>
+  <si>
+    <t>业务单位id</t>
+  </si>
+  <si>
+    <t>业主单位名字</t>
+  </si>
+  <si>
+    <t>业主单位，管养单位 已经加上了，其他的图片及录音录像信息，建造历史信息，需求这块很模糊无法确定</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -4704,6 +4750,55 @@
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>102519</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>170713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{220607D3-39AA-4FF6-A7DB-8CA6154114A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="247650"/>
+          <a:ext cx="18047619" cy="5895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5165,6 +5260,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>227250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="161925"/>
+          <a:ext cx="10800000" cy="7152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>608311</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>65781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9979A5-6FFF-420D-B221-6BF31D30A889}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067425" y="1600200"/>
+          <a:ext cx="10314286" cy="7152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -5462,11 +5655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E263"/>
+  <dimension ref="B1:E269"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G175" sqref="G175"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8314,6 +8507,61 @@
         <v>613</v>
       </c>
     </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
+        <v>651</v>
+      </c>
+      <c r="C265" t="s">
+        <v>660</v>
+      </c>
+      <c r="D265" s="24" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
+        <v>652</v>
+      </c>
+      <c r="C266" t="s">
+        <v>659</v>
+      </c>
+      <c r="D266" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
+        <v>653</v>
+      </c>
+      <c r="C267" t="s">
+        <v>658</v>
+      </c>
+      <c r="D267" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
+        <v>654</v>
+      </c>
+      <c r="C268" t="s">
+        <v>657</v>
+      </c>
+      <c r="D268" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
+        <v>655</v>
+      </c>
+      <c r="C269" t="s">
+        <v>656</v>
+      </c>
+      <c r="D269" t="s">
+        <v>649</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8323,6 +8571,120 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0B56D2-C96A-43DA-98DF-4E47C3CF98D4}">
+  <dimension ref="B3:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>526</v>
+      </c>
+      <c r="D7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>527</v>
+      </c>
+      <c r="D8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>528</v>
+      </c>
+      <c r="D9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>529</v>
+      </c>
+      <c r="D10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>521</v>
+      </c>
+      <c r="C14" t="s">
+        <v>536</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="D15" t="s">
+        <v>540</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>538</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>541</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E15:F15"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFCD286-CDF1-470B-968C-DE37035E9583}">
   <dimension ref="B6:D11"/>
   <sheetViews>
@@ -8377,7 +8739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD3380B-412D-4142-8571-BD521C7E77FE}">
   <dimension ref="B4:F11"/>
   <sheetViews>
@@ -8469,7 +8831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F704023-C365-41BD-8133-62CB8DE8EE09}">
   <dimension ref="A4:D16"/>
   <sheetViews>
@@ -8588,7 +8950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51597C8F-19B3-4F43-A157-B8DF13B3FEB4}">
   <dimension ref="A2:C4"/>
   <sheetViews>
@@ -8622,7 +8984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2CE8BA-60DD-4766-A185-A00DD6E5D280}">
   <dimension ref="D3:E11"/>
   <sheetViews>
@@ -8711,7 +9073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4EE7AC-D081-4D05-8F5D-E3B3FC3E0291}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -8740,7 +9102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CDE67D-A3A1-4608-9E0B-A9BD412A6207}">
   <dimension ref="B3:D7"/>
   <sheetViews>
@@ -8795,15 +9157,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29CFA5A-E1D8-4C8E-8CF1-21FBAA8B932E}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8820,15 +9182,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E16470-F1F2-478F-A347-44AAFC8E5FD1}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="C5:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8852,15 +9214,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE5ED14-5ACA-4AAA-B153-AB68E1178956}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F254A446-B9D2-460B-A807-3B8599E45D48}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="0"/>
   </sheetPr>
+  <dimension ref="I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>661</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA9B920-A685-4F77-A875-836E83E044C5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329B5AB9-E567-4BB9-9F86-14B108A462F5}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8871,7 +9285,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDDDF13-C1E3-4531-BE0B-60CD0BFE6FF9}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C27:F34"/>
   <sheetViews>
@@ -8915,7 +9348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA90F8C-E51A-4A32-9EB8-449A0E30615C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8928,7 +9361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8942,7 +9375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16416F09-6254-4ADB-B4E1-238E5F623979}">
   <dimension ref="B1:D23"/>
   <sheetViews>
@@ -9115,7 +9548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E76285-F245-4C5D-AD0B-FE0851F9DCA2}">
   <dimension ref="B3:D36"/>
   <sheetViews>
@@ -9348,7 +9781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F487A52-C981-4291-A7F1-3F7002F198E5}">
   <dimension ref="A3:E32"/>
   <sheetViews>
@@ -9492,7 +9925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35FC653-1B7D-40BF-9B8B-AF761FCDD977}">
   <dimension ref="A4:D14"/>
   <sheetViews>
@@ -9575,118 +10008,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0B56D2-C96A-43DA-98DF-4E47C3CF98D4}">
-  <dimension ref="B3:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>525</v>
-      </c>
-      <c r="D6" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>526</v>
-      </c>
-      <c r="D7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>527</v>
-      </c>
-      <c r="D8" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>528</v>
-      </c>
-      <c r="D9" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>529</v>
-      </c>
-      <c r="D10" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>521</v>
-      </c>
-      <c r="C14" t="s">
-        <v>536</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="D15" t="s">
-        <v>540</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>538</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>541</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E15:F15"/>
-  </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/work/V1.2_新增字段(1月6号更新).xlsx
+++ b/work/V1.2_新增字段(1月6号更新).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59C5B4E-D703-451F-B16C-7F0F94461CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B8F056-CA20-4DA4-8F35-22F76A1B24D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -109,57 +109,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C179" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>01-13新增</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C180" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">01-1新增
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C181" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">01-13新增
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="673">
   <si>
     <t>字段名</t>
   </si>
@@ -340,9 +295,6 @@
   </si>
   <si>
     <t>barricade_type</t>
-  </si>
-  <si>
-    <t>挡墙类型(v1.2新增字段)(混凝土护岸,植被护岸)</t>
   </si>
   <si>
     <t>remark</t>
@@ -2993,9 +2945,6 @@
     <t>height_sdsn</t>
   </si>
   <si>
-    <t>高度(附属工程--隔音屏)</t>
-  </si>
-  <si>
     <t>length_sdsn</t>
   </si>
   <si>
@@ -4166,7 +4115,7 @@
       </rPr>
       <t>(自动检测配置表)</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
@@ -4197,13 +4146,60 @@
   </si>
   <si>
     <t>update_user</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>序号(前端显示序号)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>监控范围(桥梁Id，英文逗号隔开)</t>
+  </si>
+  <si>
+    <t>监控范围(桥梁名称,英文逗号隔开)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用(1启用，0停用)</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>修改人</t>
+  </si>
+  <si>
+    <t>bge_auto_monitor_app_config</t>
+  </si>
+  <si>
+    <t>挡墙类型(v1.2新增字段)(重力式挡墙、轻型式挡土墙)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>revetment_type</t>
+  </si>
+  <si>
+    <t>高度(附属工程--隔音屏)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>护岸类型(混凝土护岸，植被护岸)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4281,14 +4277,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -4463,9 +4451,6 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4483,17 +4468,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5629,11 +5617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E281"/>
+  <dimension ref="B1:E282"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C280" sqref="C280"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5648,16 +5636,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5753,7 +5741,7 @@
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
@@ -5786,7 +5774,7 @@
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D13" t="s">
@@ -5800,7 +5788,7 @@
       <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D14" t="s">
@@ -5957,8 +5945,8 @@
       <c r="B29" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>54</v>
+      <c r="C29" s="3" t="s">
+        <v>669</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
@@ -5969,10 +5957,10 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
         <v>55</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
@@ -5980,46 +5968,46 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
         <v>57</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
         <v>60</v>
       </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
         <v>62</v>
       </c>
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
         <v>29</v>
@@ -6027,57 +6015,57 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
         <v>66</v>
       </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
         <v>68</v>
       </c>
-      <c r="C37" t="s">
-        <v>69</v>
-      </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
         <v>70</v>
       </c>
-      <c r="C38" t="s">
-        <v>71</v>
-      </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
         <v>72</v>
       </c>
-      <c r="C39" t="s">
-        <v>73</v>
-      </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
         <v>29</v>
@@ -6085,13 +6073,13 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
         <v>29</v>
@@ -6099,68 +6087,68 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
         <v>78</v>
       </c>
-      <c r="C42" t="s">
-        <v>79</v>
-      </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
         <v>80</v>
       </c>
-      <c r="C43" t="s">
-        <v>81</v>
-      </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
         <v>82</v>
       </c>
-      <c r="C44" t="s">
-        <v>83</v>
-      </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
         <v>84</v>
       </c>
-      <c r="C45" t="s">
-        <v>85</v>
-      </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
         <v>86</v>
       </c>
-      <c r="C46" t="s">
-        <v>87</v>
-      </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E47" t="s">
         <v>29</v>
@@ -6168,57 +6156,57 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
         <v>90</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>95</v>
+      <c r="D51" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>95</v>
+      <c r="D52" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>95</v>
+      <c r="D53" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E53" t="s">
         <v>29</v>
@@ -6226,57 +6214,57 @@
     </row>
     <row r="54" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>95</v>
+      <c r="D54" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>95</v>
+      <c r="D55" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>95</v>
+      <c r="D56" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>95</v>
+      <c r="D57" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>95</v>
+      <c r="D58" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E58" t="s">
         <v>29</v>
@@ -6284,13 +6272,13 @@
     </row>
     <row r="59" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>95</v>
+      <c r="D59" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E59" t="s">
         <v>29</v>
@@ -6298,123 +6286,123 @@
     </row>
     <row r="60" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>95</v>
+      <c r="D60" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>95</v>
+      <c r="D61" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>95</v>
+      <c r="D62" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>95</v>
+      <c r="D63" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>95</v>
+      <c r="D64" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" t="s">
         <v>126</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>127</v>
-      </c>
-      <c r="D68" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" t="s">
         <v>129</v>
       </c>
-      <c r="C69" t="s">
-        <v>130</v>
-      </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" t="s">
         <v>131</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D70" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="11" t="s">
+      <c r="C71" t="s">
         <v>133</v>
       </c>
-      <c r="C71" t="s">
-        <v>134</v>
-      </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="D72" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E72" t="s">
         <v>29</v>
@@ -6422,112 +6410,112 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" t="s">
         <v>137</v>
       </c>
-      <c r="C73" t="s">
-        <v>138</v>
-      </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" t="s">
         <v>139</v>
       </c>
-      <c r="C74" t="s">
-        <v>140</v>
-      </c>
       <c r="D74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" t="s">
         <v>141</v>
       </c>
-      <c r="C75" t="s">
-        <v>142</v>
-      </c>
       <c r="D75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" t="s">
         <v>143</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D76" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="11" t="s">
+      <c r="C77" t="s">
         <v>145</v>
       </c>
-      <c r="C77" t="s">
-        <v>146</v>
-      </c>
       <c r="D77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" t="s">
         <v>147</v>
       </c>
-      <c r="C78" t="s">
-        <v>148</v>
-      </c>
       <c r="D78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" t="s">
         <v>149</v>
       </c>
-      <c r="C79" t="s">
-        <v>150</v>
-      </c>
       <c r="D79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" t="s">
         <v>151</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D80" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="11" t="s">
+      <c r="C81" t="s">
         <v>153</v>
       </c>
-      <c r="C81" t="s">
-        <v>154</v>
-      </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E82" t="s">
         <v>29</v>
@@ -6535,46 +6523,46 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" t="s">
         <v>157</v>
       </c>
-      <c r="C83" t="s">
-        <v>158</v>
-      </c>
       <c r="D83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" t="s">
         <v>159</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D84" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="11" t="s">
+      <c r="C85" t="s">
         <v>161</v>
       </c>
-      <c r="C85" t="s">
-        <v>162</v>
-      </c>
       <c r="D85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="D86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E86" t="s">
         <v>29</v>
@@ -6582,57 +6570,57 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" t="s">
         <v>165</v>
       </c>
-      <c r="C87" t="s">
-        <v>166</v>
-      </c>
       <c r="D87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88" t="s">
         <v>167</v>
       </c>
-      <c r="C88" t="s">
-        <v>168</v>
-      </c>
       <c r="D88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" t="s">
         <v>169</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D89" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="11" t="s">
+      <c r="C90" t="s">
         <v>171</v>
       </c>
-      <c r="C90" t="s">
-        <v>172</v>
-      </c>
       <c r="D90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="D91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E91" t="s">
         <v>29</v>
@@ -6640,79 +6628,79 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" t="s">
         <v>175</v>
       </c>
-      <c r="C92" t="s">
-        <v>176</v>
-      </c>
       <c r="D92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" t="s">
         <v>177</v>
       </c>
-      <c r="C93" t="s">
-        <v>178</v>
-      </c>
       <c r="D93" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" t="s">
         <v>179</v>
       </c>
-      <c r="C94" t="s">
-        <v>180</v>
-      </c>
       <c r="D94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" t="s">
         <v>181</v>
       </c>
-      <c r="C95" t="s">
-        <v>182</v>
-      </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" t="s">
         <v>183</v>
       </c>
-      <c r="C96" t="s">
-        <v>184</v>
-      </c>
       <c r="D96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
-      </c>
-      <c r="D98" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="10" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" s="11" t="s">
+      <c r="C99" t="s">
         <v>186</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>187</v>
-      </c>
-      <c r="D99" t="s">
-        <v>188</v>
       </c>
       <c r="E99" t="s">
         <v>29</v>
@@ -6720,134 +6708,137 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" t="s">
         <v>189</v>
       </c>
-      <c r="C100" t="s">
-        <v>190</v>
-      </c>
       <c r="D100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101" t="s">
         <v>191</v>
       </c>
-      <c r="C101" t="s">
-        <v>192</v>
-      </c>
       <c r="D101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D102" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103" t="s">
         <v>194</v>
       </c>
-      <c r="C103" t="s">
-        <v>195</v>
-      </c>
       <c r="D103" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104" t="s">
         <v>196</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D104" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="11" t="s">
+      <c r="C105" t="s">
         <v>198</v>
       </c>
-      <c r="C105" t="s">
-        <v>199</v>
-      </c>
       <c r="D105" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="E105" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" t="s">
         <v>200</v>
       </c>
-      <c r="C106" t="s">
-        <v>201</v>
-      </c>
       <c r="D106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" t="s">
         <v>202</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D107" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="12" t="s">
+      <c r="C108" t="s">
         <v>204</v>
       </c>
-      <c r="C108" t="s">
-        <v>205</v>
-      </c>
       <c r="D108" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
+        <v>205</v>
+      </c>
+      <c r="C109" t="s">
         <v>206</v>
       </c>
-      <c r="C109" t="s">
-        <v>207</v>
-      </c>
       <c r="D109" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
+        <v>207</v>
+      </c>
+      <c r="C110" t="s">
         <v>208</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D110" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="11" t="s">
+      <c r="C111" t="s">
         <v>210</v>
       </c>
-      <c r="C111" t="s">
-        <v>211</v>
-      </c>
       <c r="D111" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E111" t="s">
         <v>29</v>
@@ -6855,156 +6846,156 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
+        <v>211</v>
+      </c>
+      <c r="C112" t="s">
         <v>212</v>
       </c>
-      <c r="C112" t="s">
-        <v>213</v>
-      </c>
       <c r="D112" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
+        <v>213</v>
+      </c>
+      <c r="C113" t="s">
         <v>214</v>
       </c>
-      <c r="C113" t="s">
-        <v>215</v>
-      </c>
       <c r="D113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" t="s">
         <v>216</v>
       </c>
-      <c r="C114" t="s">
-        <v>217</v>
-      </c>
       <c r="D114" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
+        <v>217</v>
+      </c>
+      <c r="C115" t="s">
         <v>218</v>
       </c>
-      <c r="C115" t="s">
-        <v>219</v>
-      </c>
       <c r="D115" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
+        <v>219</v>
+      </c>
+      <c r="C116" t="s">
         <v>220</v>
       </c>
-      <c r="C116" t="s">
-        <v>221</v>
-      </c>
       <c r="D116" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
+        <v>221</v>
+      </c>
+      <c r="C117" t="s">
         <v>222</v>
       </c>
-      <c r="C117" t="s">
-        <v>223</v>
-      </c>
       <c r="D117" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C118" t="s">
         <v>224</v>
       </c>
-      <c r="C118" t="s">
-        <v>225</v>
-      </c>
       <c r="D118" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
+        <v>225</v>
+      </c>
+      <c r="C119" t="s">
         <v>226</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D119" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="13" t="s">
+      <c r="C120" t="s">
         <v>228</v>
       </c>
-      <c r="C120" t="s">
-        <v>229</v>
-      </c>
       <c r="D120" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
+        <v>229</v>
+      </c>
+      <c r="C121" t="s">
         <v>230</v>
       </c>
-      <c r="C121" t="s">
-        <v>231</v>
-      </c>
       <c r="D121" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
+        <v>231</v>
+      </c>
+      <c r="C122" t="s">
         <v>232</v>
       </c>
-      <c r="C122" t="s">
-        <v>233</v>
-      </c>
       <c r="D122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
+        <v>233</v>
+      </c>
+      <c r="C123" t="s">
         <v>234</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="D123" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="13" t="s">
+      <c r="C124" t="s">
         <v>236</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D124" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="11" t="s">
+      <c r="C125" t="s">
         <v>238</v>
       </c>
-      <c r="C125" t="s">
-        <v>239</v>
-      </c>
       <c r="D125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E125" t="s">
         <v>29</v>
@@ -7012,57 +7003,57 @@
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
+        <v>239</v>
+      </c>
+      <c r="C126" t="s">
         <v>240</v>
       </c>
-      <c r="C126" t="s">
-        <v>241</v>
-      </c>
       <c r="D126" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
+        <v>241</v>
+      </c>
+      <c r="C127" t="s">
         <v>242</v>
       </c>
-      <c r="C127" t="s">
-        <v>243</v>
-      </c>
       <c r="D127" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
+        <v>243</v>
+      </c>
+      <c r="C128" t="s">
         <v>244</v>
       </c>
-      <c r="C128" t="s">
-        <v>245</v>
-      </c>
       <c r="D128" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
+        <v>245</v>
+      </c>
+      <c r="C129" t="s">
         <v>246</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D129" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="11" t="s">
+      <c r="C130" t="s">
         <v>248</v>
       </c>
-      <c r="C130" t="s">
-        <v>249</v>
-      </c>
       <c r="D130" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E130" t="s">
         <v>29</v>
@@ -7070,200 +7061,200 @@
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" t="s">
         <v>250</v>
       </c>
-      <c r="C131" t="s">
-        <v>251</v>
-      </c>
       <c r="D131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
+        <v>251</v>
+      </c>
+      <c r="C132" t="s">
         <v>252</v>
       </c>
-      <c r="C132" t="s">
-        <v>253</v>
-      </c>
       <c r="D132" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
+        <v>253</v>
+      </c>
+      <c r="C133" t="s">
         <v>254</v>
       </c>
-      <c r="C133" t="s">
-        <v>255</v>
-      </c>
       <c r="D133" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
+        <v>255</v>
+      </c>
+      <c r="C134" t="s">
         <v>256</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="D134" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="11" t="s">
+      <c r="C136" t="s">
         <v>258</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>259</v>
-      </c>
-      <c r="D136" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C137" t="s">
         <v>261</v>
       </c>
-      <c r="C137" t="s">
-        <v>262</v>
-      </c>
       <c r="D137" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
+        <v>262</v>
+      </c>
+      <c r="C138" t="s">
         <v>263</v>
       </c>
-      <c r="C138" t="s">
-        <v>264</v>
-      </c>
       <c r="D138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
+        <v>264</v>
+      </c>
+      <c r="C139" t="s">
         <v>265</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D139" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="11" t="s">
+      <c r="C140" t="s">
         <v>267</v>
       </c>
-      <c r="C140" t="s">
-        <v>268</v>
-      </c>
       <c r="D140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
+        <v>268</v>
+      </c>
+      <c r="C141" t="s">
         <v>269</v>
       </c>
-      <c r="C141" t="s">
-        <v>270</v>
-      </c>
       <c r="D141" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
+        <v>270</v>
+      </c>
+      <c r="C142" t="s">
         <v>271</v>
       </c>
-      <c r="C142" t="s">
-        <v>272</v>
-      </c>
       <c r="D142" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
+        <v>272</v>
+      </c>
+      <c r="C143" t="s">
         <v>273</v>
       </c>
-      <c r="C143" t="s">
-        <v>274</v>
-      </c>
       <c r="D143" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
+        <v>274</v>
+      </c>
+      <c r="C144" t="s">
         <v>275</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D144" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="11" t="s">
+      <c r="C145" t="s">
         <v>277</v>
       </c>
-      <c r="C145" t="s">
-        <v>278</v>
-      </c>
       <c r="D145" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
+        <v>278</v>
+      </c>
+      <c r="C146" t="s">
         <v>279</v>
       </c>
-      <c r="C146" t="s">
-        <v>280</v>
-      </c>
       <c r="D146" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
+        <v>280</v>
+      </c>
+      <c r="C147" t="s">
         <v>281</v>
       </c>
-      <c r="C147" t="s">
-        <v>282</v>
-      </c>
       <c r="D147" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
+        <v>282</v>
+      </c>
+      <c r="C148" t="s">
         <v>283</v>
       </c>
-      <c r="C148" t="s">
-        <v>284</v>
-      </c>
       <c r="D148" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
+        <v>284</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="D149" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E149" t="s">
         <v>29</v>
@@ -7271,379 +7262,394 @@
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
+        <v>286</v>
+      </c>
+      <c r="C150" t="s">
         <v>287</v>
       </c>
-      <c r="C150" t="s">
-        <v>288</v>
-      </c>
       <c r="D150" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
+        <v>288</v>
+      </c>
+      <c r="C151" t="s">
         <v>289</v>
       </c>
-      <c r="C151" t="s">
-        <v>290</v>
-      </c>
       <c r="D151" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
+        <v>290</v>
+      </c>
+      <c r="C152" t="s">
         <v>291</v>
       </c>
-      <c r="C152" t="s">
-        <v>292</v>
-      </c>
       <c r="D152" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
+        <v>292</v>
+      </c>
+      <c r="C154" t="s">
         <v>293</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>294</v>
-      </c>
-      <c r="D154" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
+        <v>295</v>
+      </c>
+      <c r="C155" t="s">
         <v>296</v>
       </c>
-      <c r="C155" t="s">
-        <v>297</v>
-      </c>
       <c r="D155" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
+        <v>297</v>
+      </c>
+      <c r="C156" t="s">
         <v>298</v>
       </c>
-      <c r="C156" t="s">
-        <v>299</v>
-      </c>
       <c r="D156" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
+        <v>299</v>
+      </c>
+      <c r="C157" t="s">
         <v>300</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="D157" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B158" s="11" t="s">
+      <c r="C158" t="s">
         <v>302</v>
       </c>
-      <c r="C158" t="s">
-        <v>303</v>
-      </c>
       <c r="D158" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="E158" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
+        <v>303</v>
+      </c>
+      <c r="C159" t="s">
         <v>304</v>
       </c>
-      <c r="C159" t="s">
-        <v>305</v>
-      </c>
       <c r="D159" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
+        <v>305</v>
+      </c>
+      <c r="C160" t="s">
         <v>306</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
         <v>307</v>
       </c>
-      <c r="D160" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>308</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B162" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="D161" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B162" s="11" t="s">
+      <c r="C162" t="s">
         <v>310</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
+        <v>294</v>
+      </c>
+      <c r="E162" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
         <v>311</v>
       </c>
-      <c r="D162" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>312</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
         <v>313</v>
       </c>
-      <c r="D163" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>314</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
         <v>315</v>
       </c>
-      <c r="D164" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>316</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B166" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D165" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B166" s="11" t="s">
+      <c r="C166" t="s">
         <v>318</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
+        <v>294</v>
+      </c>
+      <c r="E166" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
         <v>319</v>
       </c>
-      <c r="D166" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>320</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B168" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="D167" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B168" s="11" t="s">
+      <c r="C168" t="s">
         <v>322</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
+        <v>294</v>
+      </c>
+      <c r="E168" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
         <v>323</v>
       </c>
-      <c r="D168" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>324</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B170" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D169" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B170" s="11" t="s">
+      <c r="C170" t="s">
         <v>326</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
+        <v>294</v>
+      </c>
+      <c r="E170" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
         <v>327</v>
       </c>
-      <c r="D170" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B171" t="s">
+      <c r="C171" t="s">
+        <v>671</v>
+      </c>
+      <c r="D171" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>670</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D172" t="s">
+        <v>294</v>
+      </c>
+      <c r="E172" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
         <v>328</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C173" t="s">
         <v>329</v>
       </c>
-      <c r="D171" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B172" t="s">
+      <c r="D173" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
         <v>330</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C174" t="s">
         <v>331</v>
       </c>
-      <c r="D172" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B173" t="s">
+      <c r="D174" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
         <v>332</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C175" t="s">
         <v>333</v>
       </c>
-      <c r="D173" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B174" t="s">
+      <c r="D175" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
         <v>334</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C176" t="s">
         <v>335</v>
       </c>
-      <c r="D174" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B175" t="s">
-        <v>336</v>
-      </c>
-      <c r="C175" t="s">
-        <v>337</v>
-      </c>
-      <c r="D175" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B176" t="s">
-        <v>338</v>
-      </c>
-      <c r="C176" t="s">
-        <v>339</v>
-      </c>
       <c r="D176" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C177" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D177" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
+        <v>338</v>
+      </c>
+      <c r="C178" t="s">
+        <v>339</v>
+      </c>
+      <c r="D178" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>340</v>
+      </c>
+      <c r="C179" t="s">
+        <v>341</v>
+      </c>
+      <c r="D179" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
         <v>342</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C180" t="s">
         <v>343</v>
       </c>
-      <c r="D178" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B179" s="5" t="s">
+      <c r="D180" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
         <v>344</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C181" t="s">
         <v>345</v>
       </c>
-      <c r="D179" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B180" s="5" t="s">
+      <c r="D181" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
         <v>346</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C182" t="s">
         <v>347</v>
       </c>
-      <c r="D180" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B181" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C181" t="s">
-        <v>349</v>
-      </c>
-      <c r="D181" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B183" t="s">
-        <v>90</v>
-      </c>
-      <c r="C183" t="s">
-        <v>124</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>350</v>
+      <c r="D182" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>351</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="D184" t="s">
-        <v>353</v>
-      </c>
-      <c r="E184" t="s">
-        <v>29</v>
+        <v>89</v>
+      </c>
+      <c r="C184" t="s">
+        <v>123</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>354</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="D185" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E185" t="s">
         <v>29</v>
@@ -7651,184 +7657,187 @@
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>356</v>
-      </c>
-      <c r="C186" t="s">
-        <v>357</v>
+        <v>352</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="D186" t="s">
-        <v>353</v>
+        <v>351</v>
+      </c>
+      <c r="E186" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
+        <v>354</v>
+      </c>
+      <c r="C187" t="s">
+        <v>355</v>
+      </c>
+      <c r="D187" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>356</v>
+      </c>
+      <c r="C188" t="s">
+        <v>357</v>
+      </c>
+      <c r="D188" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B189" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C189" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D187" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B188" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D188" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B189" t="s">
-        <v>362</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>363</v>
-      </c>
       <c r="D189" t="s">
-        <v>353</v>
+        <v>351</v>
+      </c>
+      <c r="E189" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>364</v>
-      </c>
-      <c r="C190" t="s">
-        <v>365</v>
+        <v>360</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="D190" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>366</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
+      </c>
+      <c r="C191" t="s">
+        <v>363</v>
       </c>
       <c r="D191" t="s">
-        <v>353</v>
-      </c>
-      <c r="E191" t="s">
-        <v>29</v>
+        <v>351</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>368</v>
-      </c>
-      <c r="C192" t="s">
-        <v>369</v>
+        <v>364</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="D192" t="s">
-        <v>353</v>
+        <v>351</v>
+      </c>
+      <c r="E192" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C193" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D193" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C194" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D194" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C195" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D195" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C196" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D196" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C197" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D197" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C198" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D198" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C199" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D199" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>384</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>385</v>
+        <v>380</v>
+      </c>
+      <c r="C200" t="s">
+        <v>381</v>
       </c>
       <c r="D200" t="s">
-        <v>353</v>
-      </c>
-      <c r="E200" t="s">
-        <v>29</v>
+        <v>351</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>386</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="D201" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E201" t="s">
         <v>29</v>
@@ -7836,49 +7845,49 @@
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>388</v>
-      </c>
-      <c r="C202" t="s">
-        <v>389</v>
+        <v>384</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="D202" t="s">
-        <v>353</v>
+        <v>351</v>
+      </c>
+      <c r="E202" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C203" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D203" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>392</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
+      </c>
+      <c r="C204" t="s">
+        <v>389</v>
       </c>
       <c r="D204" t="s">
-        <v>353</v>
-      </c>
-      <c r="E204" t="s">
-        <v>29</v>
+        <v>351</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>394</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="D205" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E205" t="s">
         <v>29</v>
@@ -7886,211 +7895,214 @@
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>396</v>
-      </c>
-      <c r="C206" t="s">
-        <v>397</v>
+        <v>392</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="D206" t="s">
-        <v>353</v>
+        <v>351</v>
+      </c>
+      <c r="E206" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C207" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D207" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C208" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D208" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C209" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D209" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B211" t="s">
-        <v>90</v>
-      </c>
-      <c r="C211" t="s">
-        <v>124</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>404</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>400</v>
+      </c>
+      <c r="C210" t="s">
+        <v>401</v>
+      </c>
+      <c r="D210" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>405</v>
+        <v>89</v>
       </c>
       <c r="C212" t="s">
-        <v>406</v>
-      </c>
-      <c r="D212" t="s">
-        <v>407</v>
+        <v>123</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C213" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D213" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C214" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D214" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C215" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D215" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C216" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D216" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C217" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D217" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C218" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D218" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C219" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D219" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C220" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D220" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C221" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D221" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="C222" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D222" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C223" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D223" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="C224" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D224" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="C225" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D225" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
@@ -8098,504 +8110,578 @@
         <v>388</v>
       </c>
       <c r="C226" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D226" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B228" t="s">
-        <v>90</v>
-      </c>
-      <c r="C228" t="s">
-        <v>124</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>432</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
+        <v>386</v>
+      </c>
+      <c r="C227" t="s">
+        <v>429</v>
+      </c>
+      <c r="D227" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>433</v>
+        <v>89</v>
       </c>
       <c r="C229" t="s">
-        <v>434</v>
-      </c>
-      <c r="D229" t="s">
-        <v>435</v>
+        <v>123</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C230" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D230" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C231" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D231" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C232" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D232" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
+        <v>438</v>
+      </c>
+      <c r="C233" t="s">
+        <v>439</v>
+      </c>
+      <c r="D233" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
+        <v>440</v>
+      </c>
+      <c r="C234" t="s">
+        <v>441</v>
+      </c>
+      <c r="D234" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B235" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C235" t="s">
         <v>443</v>
       </c>
-      <c r="D233" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B234" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="C234" t="s">
-        <v>445</v>
-      </c>
-      <c r="D234" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B235" t="s">
-        <v>446</v>
-      </c>
-      <c r="C235" t="s">
-        <v>447</v>
-      </c>
       <c r="D235" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C236" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D236" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C237" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D237" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
+        <v>448</v>
+      </c>
+      <c r="C238" t="s">
+        <v>449</v>
+      </c>
+      <c r="D238" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B239" t="s">
+        <v>450</v>
+      </c>
+      <c r="C239" t="s">
+        <v>451</v>
+      </c>
+      <c r="D239" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B240" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C240" t="s">
         <v>453</v>
       </c>
-      <c r="D238" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B239" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="C239" t="s">
-        <v>455</v>
-      </c>
-      <c r="D239" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B240" t="s">
-        <v>456</v>
-      </c>
-      <c r="C240" t="s">
-        <v>457</v>
-      </c>
       <c r="D240" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C241" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D241" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C242" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D242" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C243" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D243" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C244" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D244" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C245" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D245" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C246" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D246" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
+        <v>466</v>
+      </c>
+      <c r="C247" t="s">
+        <v>467</v>
+      </c>
+      <c r="D247" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
+        <v>468</v>
+      </c>
+      <c r="C248" t="s">
+        <v>469</v>
+      </c>
+      <c r="D248" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B249" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C247" t="s">
-        <v>471</v>
-      </c>
-      <c r="D247" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B248" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D248" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B249" t="s">
-        <v>285</v>
-      </c>
-      <c r="C249" t="s">
-        <v>473</v>
-      </c>
       <c r="D249" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C250" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D250" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>475</v>
+        <v>286</v>
       </c>
       <c r="C251" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D251" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>291</v>
+        <v>473</v>
       </c>
       <c r="C252" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D252" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>478</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>479</v>
+        <v>290</v>
+      </c>
+      <c r="C253" t="s">
+        <v>475</v>
       </c>
       <c r="D253" t="s">
-        <v>435</v>
-      </c>
-      <c r="E253" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
+        <v>476</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D254" t="s">
+        <v>433</v>
+      </c>
+      <c r="E254" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B256" t="s">
-        <v>480</v>
-      </c>
-      <c r="C256" t="s">
-        <v>481</v>
-      </c>
-      <c r="D256" s="5" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C257" t="s">
-        <v>484</v>
-      </c>
-      <c r="D257" t="s">
-        <v>485</v>
+        <v>479</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C258" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D258" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C259" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D259" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C260" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D260" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C261" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D261" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C262" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D262" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C263" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D263" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B265" t="s">
-        <v>498</v>
-      </c>
-      <c r="C265" t="s">
-        <v>499</v>
-      </c>
-      <c r="D265" s="10" t="s">
-        <v>500</v>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>494</v>
+      </c>
+      <c r="C264" t="s">
+        <v>495</v>
+      </c>
+      <c r="D264" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C266" t="s">
-        <v>502</v>
-      </c>
-      <c r="D266" t="s">
-        <v>503</v>
+        <v>497</v>
+      </c>
+      <c r="D266" s="9" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C267" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D267" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C268" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D268" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C269" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D269" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B271" t="s">
-        <v>651</v>
-      </c>
-      <c r="D271" t="s">
-        <v>650</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
+        <v>506</v>
+      </c>
+      <c r="C270" t="s">
+        <v>507</v>
+      </c>
+      <c r="D270" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+      <c r="C272" t="s">
+        <v>659</v>
+      </c>
+      <c r="D272" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
+        <v>610</v>
+      </c>
+      <c r="C273" t="s">
+        <v>660</v>
+      </c>
+      <c r="D273" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B274" t="s">
+        <v>650</v>
+      </c>
+      <c r="C274" t="s">
+        <v>661</v>
+      </c>
+      <c r="D274" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
+        <v>651</v>
+      </c>
+      <c r="C275" t="s">
+        <v>662</v>
+      </c>
+      <c r="D275" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B274" t="s">
+      <c r="C276" t="s">
+        <v>663</v>
+      </c>
+      <c r="D276" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B277" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B275" t="s">
+      <c r="C277" t="s">
+        <v>664</v>
+      </c>
+      <c r="D277" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B276" t="s">
+      <c r="C278" t="s">
+        <v>654</v>
+      </c>
+      <c r="D278" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B279" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B277" t="s">
+      <c r="C279" t="s">
+        <v>493</v>
+      </c>
+      <c r="D279" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B280" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B278" t="s">
+      <c r="C280" t="s">
+        <v>665</v>
+      </c>
+      <c r="D280" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B281" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B279" t="s">
+      <c r="C281" t="s">
+        <v>666</v>
+      </c>
+      <c r="D281" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B282" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B280" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B281" t="s">
-        <v>660</v>
+      <c r="C282" t="s">
+        <v>667</v>
+      </c>
+      <c r="D282" t="s">
+        <v>668</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -8618,41 +8704,41 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="21" t="s">
-        <v>589</v>
+      <c r="B6" s="20" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
-        <v>590</v>
+      <c r="B7" s="21" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>589</v>
+      </c>
+      <c r="C9" t="s">
+        <v>590</v>
+      </c>
+      <c r="D9" t="s">
         <v>591</v>
-      </c>
-      <c r="C9" t="s">
-        <v>592</v>
-      </c>
-      <c r="D9" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D10" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -8677,74 +8763,74 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>597</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>598</v>
+        <v>595</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>597</v>
+      </c>
+      <c r="C8" t="s">
+        <v>516</v>
+      </c>
+      <c r="D8" t="s">
+        <v>598</v>
+      </c>
+      <c r="E8" t="s">
+        <v>598</v>
+      </c>
+      <c r="F8" t="s">
         <v>599</v>
-      </c>
-      <c r="C8" t="s">
-        <v>518</v>
-      </c>
-      <c r="D8" t="s">
-        <v>600</v>
-      </c>
-      <c r="E8" t="s">
-        <v>600</v>
-      </c>
-      <c r="F8" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>602</v>
+      </c>
+      <c r="D10" t="s">
+        <v>603</v>
+      </c>
+      <c r="E10" t="s">
         <v>604</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="23"/>
+      <c r="C11" t="s">
         <v>605</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D11" t="s">
         <v>606</v>
       </c>
-      <c r="F10" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="24"/>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>607</v>
       </c>
-      <c r="D11" t="s">
-        <v>608</v>
-      </c>
-      <c r="E11" t="s">
-        <v>609</v>
-      </c>
       <c r="F11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -8767,102 +8853,102 @@
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>569</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>611</v>
+        <v>567</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>609</v>
       </c>
       <c r="D5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="D6" t="s">
         <v>613</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>614</v>
-      </c>
-      <c r="D6" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="D7" t="s">
         <v>616</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="D7" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="D8" t="s">
         <v>619</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="D8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>620</v>
+      </c>
+      <c r="C11" t="s">
+        <v>621</v>
+      </c>
+      <c r="D11" t="s">
         <v>622</v>
-      </c>
-      <c r="C11" t="s">
-        <v>623</v>
-      </c>
-      <c r="D11" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>611</v>
+        <v>567</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>609</v>
       </c>
       <c r="D14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>611</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="D15" t="s">
         <v>613</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>614</v>
-      </c>
-      <c r="D15" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>617</v>
+      </c>
+      <c r="C16" t="s">
+        <v>618</v>
+      </c>
+      <c r="D16" t="s">
         <v>619</v>
       </c>
-      <c r="C16" t="s">
-        <v>620</v>
-      </c>
-      <c r="D16" t="s">
-        <v>621</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -8881,24 +8967,24 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -8919,12 +9005,12 @@
   <sheetData>
     <row r="3" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -8932,7 +9018,7 @@
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -8940,7 +9026,7 @@
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -8948,7 +9034,7 @@
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -8956,7 +9042,7 @@
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -8964,30 +9050,30 @@
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="14" t="s">
-        <v>635</v>
+      <c r="D10" s="13" t="s">
+        <v>633</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="14" t="s">
-        <v>636</v>
+      <c r="D11" s="13" t="s">
+        <v>634</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -9012,11 +9098,11 @@
   <sheetData>
     <row r="44" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P44" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -9039,40 +9125,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C3" s="13"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>638</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>639</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>641</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>640</v>
       </c>
       <c r="D5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>643</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>644</v>
+        <v>641</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -9093,11 +9179,11 @@
   <sheetData>
     <row r="41" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L41" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -9122,16 +9208,16 @@
   <sheetData>
     <row r="5" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -9152,11 +9238,11 @@
   <sheetData>
     <row r="27" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I27" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -9171,7 +9257,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -9187,7 +9273,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -9204,7 +9290,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -9226,11 +9312,11 @@
   <sheetData>
     <row r="38" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J38" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -9257,98 +9343,98 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>579</v>
+      </c>
+      <c r="C14" t="s">
+        <v>580</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="20" t="s">
+      <c r="E15" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="D15" t="s">
-        <v>585</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>587</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>588</v>
+        <v>585</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E15:F15"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -9362,13 +9448,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9385,33 +9471,33 @@
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="14" t="s">
-        <v>510</v>
+      <c r="C27" s="13" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="14" t="s">
-        <v>511</v>
+      <c r="C28" s="13" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F33" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F34" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -9428,7 +9514,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -9442,7 +9528,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -9464,129 +9550,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
         <v>519</v>
-      </c>
-      <c r="D5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="15" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>522</v>
+      </c>
+      <c r="D11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="16" t="s">
         <v>524</v>
-      </c>
-      <c r="D11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="17" t="s">
-        <v>526</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="D17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="D18" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="14" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="14" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="14" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="D21" t="s">
-        <v>535</v>
-      </c>
-    </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="14" t="s">
-        <v>516</v>
+      <c r="C22" s="13" t="s">
+        <v>514</v>
       </c>
       <c r="D22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D23" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -9609,218 +9695,218 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D3" t="s">
         <v>538</v>
-      </c>
-      <c r="C3" t="s">
-        <v>539</v>
-      </c>
-      <c r="D3" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D8" t="s">
         <v>545</v>
       </c>
-      <c r="C8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D8" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C9" s="14" t="s">
-        <v>539</v>
+      <c r="C9" s="13" t="s">
+        <v>537</v>
       </c>
       <c r="D9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="D12" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>542</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="D13" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="14" t="s">
-        <v>532</v>
+      <c r="C19" s="13" t="s">
+        <v>530</v>
       </c>
       <c r="D19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="3" t="s">
-        <v>541</v>
+      <c r="C20" s="2" t="s">
+        <v>539</v>
       </c>
       <c r="D20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D21" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C26" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="13"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D28" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D29" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D31" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D32" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D33" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D34" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D35" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D36" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -9843,73 +9929,73 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
+      <c r="A3" s="17"/>
       <c r="B3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17" t="s">
-        <v>526</v>
+      <c r="A16" s="17"/>
+      <c r="B16" s="16" t="s">
+        <v>524</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="D17" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="14" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="3" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="3" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="D20" t="s">
-        <v>535</v>
-      </c>
-    </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="3" t="s">
-        <v>516</v>
+      <c r="C21" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="D21" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E21" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="B26" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -9917,54 +10003,54 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>552</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>529</v>
+        <v>550</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D29" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D31" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D32" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -9987,9 +10073,9 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -9997,59 +10083,59 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>552</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>529</v>
+        <v>550</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
